--- a/d2_match_results.xlsx
+++ b/d2_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="615">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -1202,6 +1202,15 @@
     <t>Patrick Alt</t>
   </si>
   <si>
+    <t>Matthias Jöllenbeck</t>
+  </si>
+  <si>
+    <t>Florian Badstübner</t>
+  </si>
+  <si>
+    <t>Nicolas Winter</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/ee0af24d/Koln-Hamburger-SV-August-2-2024-2-Bundesliga</t>
   </si>
   <si>
@@ -1821,6 +1830,33 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/789689ab/Jahn-Regensburg-Preussen-Munster-September-22-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1a2ce577/Greuther-Furth-Dusseldorf-September-27-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c9aa1f29/Ulm-Eintracht-Braunschweig-September-27-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/07fed62d/Hamburger-SV-Paderborn-07-September-28-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/53ccd733/Jahn-Regensburg-Kaiserslautern-September-28-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b240225d/Darmstadt-98-Magdeburg-September-28-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eccce024/Preussen-Munster-Schalke-04-September-28-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/423cd288/Hertha-BSC-Elversberg-September-29-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7806dbc9/Hannover-96-Nurnberg-September-29-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f3e71cb0/Koln-Karlsruher-September-29-2024-2-Bundesliga</t>
   </si>
 </sst>
 </file>
@@ -2000,7 +2036,7 @@
         <v>#N/A</v>
       </c>
       <c r="U2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3">
@@ -2065,7 +2101,7 @@
         <v>#N/A</v>
       </c>
       <c r="U3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4">
@@ -2130,7 +2166,7 @@
         <v>#N/A</v>
       </c>
       <c r="U4" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5">
@@ -2195,7 +2231,7 @@
         <v>#N/A</v>
       </c>
       <c r="U5" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6">
@@ -2260,7 +2296,7 @@
         <v>#N/A</v>
       </c>
       <c r="U6" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7">
@@ -2325,7 +2361,7 @@
         <v>#N/A</v>
       </c>
       <c r="U7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8">
@@ -2390,7 +2426,7 @@
         <v>#N/A</v>
       </c>
       <c r="U8" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9">
@@ -2455,7 +2491,7 @@
         <v>#N/A</v>
       </c>
       <c r="U9" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10">
@@ -2520,7 +2556,7 @@
         <v>#N/A</v>
       </c>
       <c r="U10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11">
@@ -2585,7 +2621,7 @@
         <v>#N/A</v>
       </c>
       <c r="U11" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12">
@@ -2650,7 +2686,7 @@
         <v>#N/A</v>
       </c>
       <c r="U12" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13">
@@ -2715,7 +2751,7 @@
         <v>#N/A</v>
       </c>
       <c r="U13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14">
@@ -2780,7 +2816,7 @@
         <v>#N/A</v>
       </c>
       <c r="U14" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15">
@@ -2845,7 +2881,7 @@
         <v>#N/A</v>
       </c>
       <c r="U15" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16">
@@ -2910,7 +2946,7 @@
         <v>#N/A</v>
       </c>
       <c r="U16" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17">
@@ -2975,7 +3011,7 @@
         <v>#N/A</v>
       </c>
       <c r="U17" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18">
@@ -3040,7 +3076,7 @@
         <v>#N/A</v>
       </c>
       <c r="U18" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19">
@@ -3105,7 +3141,7 @@
         <v>#N/A</v>
       </c>
       <c r="U19" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20">
@@ -3170,7 +3206,7 @@
         <v>#N/A</v>
       </c>
       <c r="U20" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +3271,7 @@
         <v>#N/A</v>
       </c>
       <c r="U21" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22">
@@ -3300,7 +3336,7 @@
         <v>#N/A</v>
       </c>
       <c r="U22" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23">
@@ -3365,7 +3401,7 @@
         <v>#N/A</v>
       </c>
       <c r="U23" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24">
@@ -3430,7 +3466,7 @@
         <v>#N/A</v>
       </c>
       <c r="U24" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25">
@@ -3495,7 +3531,7 @@
         <v>#N/A</v>
       </c>
       <c r="U25" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26">
@@ -3560,7 +3596,7 @@
         <v>#N/A</v>
       </c>
       <c r="U26" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27">
@@ -3625,7 +3661,7 @@
         <v>#N/A</v>
       </c>
       <c r="U27" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28">
@@ -3690,7 +3726,7 @@
         <v>#N/A</v>
       </c>
       <c r="U28" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29">
@@ -3755,7 +3791,7 @@
         <v>#N/A</v>
       </c>
       <c r="U29" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30">
@@ -3820,7 +3856,7 @@
         <v>#N/A</v>
       </c>
       <c r="U30" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31">
@@ -3885,7 +3921,7 @@
         <v>#N/A</v>
       </c>
       <c r="U31" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32">
@@ -3950,7 +3986,7 @@
         <v>#N/A</v>
       </c>
       <c r="U32" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33">
@@ -4015,7 +4051,7 @@
         <v>#N/A</v>
       </c>
       <c r="U33" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34">
@@ -4080,7 +4116,7 @@
         <v>#N/A</v>
       </c>
       <c r="U34" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35">
@@ -4145,7 +4181,7 @@
         <v>#N/A</v>
       </c>
       <c r="U35" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36">
@@ -4210,7 +4246,7 @@
         <v>#N/A</v>
       </c>
       <c r="U36" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37">
@@ -4275,7 +4311,7 @@
         <v>#N/A</v>
       </c>
       <c r="U37" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38">
@@ -4340,7 +4376,7 @@
         <v>#N/A</v>
       </c>
       <c r="U38" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39">
@@ -4405,7 +4441,7 @@
         <v>#N/A</v>
       </c>
       <c r="U39" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40">
@@ -4470,7 +4506,7 @@
         <v>#N/A</v>
       </c>
       <c r="U40" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41">
@@ -4535,7 +4571,7 @@
         <v>#N/A</v>
       </c>
       <c r="U41" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42">
@@ -4600,7 +4636,7 @@
         <v>#N/A</v>
       </c>
       <c r="U42" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43">
@@ -4665,7 +4701,7 @@
         <v>#N/A</v>
       </c>
       <c r="U43" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44">
@@ -4730,7 +4766,7 @@
         <v>#N/A</v>
       </c>
       <c r="U44" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45">
@@ -4795,7 +4831,7 @@
         <v>#N/A</v>
       </c>
       <c r="U45" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46">
@@ -4860,7 +4896,7 @@
         <v>#N/A</v>
       </c>
       <c r="U46" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47">
@@ -4925,7 +4961,7 @@
         <v>#N/A</v>
       </c>
       <c r="U47" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48">
@@ -4990,7 +5026,7 @@
         <v>#N/A</v>
       </c>
       <c r="U48" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49">
@@ -5055,7 +5091,7 @@
         <v>#N/A</v>
       </c>
       <c r="U49" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50">
@@ -5120,7 +5156,7 @@
         <v>#N/A</v>
       </c>
       <c r="U50" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51">
@@ -5185,7 +5221,7 @@
         <v>#N/A</v>
       </c>
       <c r="U51" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52">
@@ -5250,7 +5286,7 @@
         <v>#N/A</v>
       </c>
       <c r="U52" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53">
@@ -5315,7 +5351,7 @@
         <v>#N/A</v>
       </c>
       <c r="U53" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54">
@@ -5380,7 +5416,7 @@
         <v>#N/A</v>
       </c>
       <c r="U54" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55">
@@ -5445,7 +5481,7 @@
         <v>#N/A</v>
       </c>
       <c r="U55" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56">
@@ -5510,7 +5546,7 @@
         <v>#N/A</v>
       </c>
       <c r="U56" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57">
@@ -5575,7 +5611,7 @@
         <v>#N/A</v>
       </c>
       <c r="U57" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58">
@@ -5640,7 +5676,7 @@
         <v>#N/A</v>
       </c>
       <c r="U58" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="59">
@@ -5705,7 +5741,7 @@
         <v>#N/A</v>
       </c>
       <c r="U59" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60">
@@ -5770,7 +5806,7 @@
         <v>#N/A</v>
       </c>
       <c r="U60" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61">
@@ -5835,7 +5871,7 @@
         <v>#N/A</v>
       </c>
       <c r="U61" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62">
@@ -5900,7 +5936,7 @@
         <v>#N/A</v>
       </c>
       <c r="U62" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="63">
@@ -5965,7 +6001,7 @@
         <v>#N/A</v>
       </c>
       <c r="U63" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64">
@@ -6030,7 +6066,7 @@
         <v>#N/A</v>
       </c>
       <c r="U64" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65">
@@ -6095,7 +6131,7 @@
         <v>#N/A</v>
       </c>
       <c r="U65" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66">
@@ -6160,7 +6196,7 @@
         <v>#N/A</v>
       </c>
       <c r="U66" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67">
@@ -6225,7 +6261,7 @@
         <v>#N/A</v>
       </c>
       <c r="U67" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68">
@@ -6290,7 +6326,7 @@
         <v>#N/A</v>
       </c>
       <c r="U68" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69">
@@ -6355,7 +6391,7 @@
         <v>#N/A</v>
       </c>
       <c r="U69" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70">
@@ -6420,7 +6456,7 @@
         <v>#N/A</v>
       </c>
       <c r="U70" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71">
@@ -6485,7 +6521,7 @@
         <v>#N/A</v>
       </c>
       <c r="U71" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72">
@@ -6550,7 +6586,7 @@
         <v>#N/A</v>
       </c>
       <c r="U72" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73">
@@ -6615,7 +6651,7 @@
         <v>#N/A</v>
       </c>
       <c r="U73" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74">
@@ -6680,7 +6716,7 @@
         <v>#N/A</v>
       </c>
       <c r="U74" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="75">
@@ -6745,7 +6781,7 @@
         <v>#N/A</v>
       </c>
       <c r="U75" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76">
@@ -6810,7 +6846,7 @@
         <v>#N/A</v>
       </c>
       <c r="U76" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77">
@@ -6875,7 +6911,7 @@
         <v>#N/A</v>
       </c>
       <c r="U77" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78">
@@ -6940,7 +6976,7 @@
         <v>#N/A</v>
       </c>
       <c r="U78" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79">
@@ -7005,7 +7041,7 @@
         <v>#N/A</v>
       </c>
       <c r="U79" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80">
@@ -7070,7 +7106,7 @@
         <v>#N/A</v>
       </c>
       <c r="U80" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="81">
@@ -7135,7 +7171,7 @@
         <v>#N/A</v>
       </c>
       <c r="U81" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="82">
@@ -7200,7 +7236,7 @@
         <v>#N/A</v>
       </c>
       <c r="U82" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="83">
@@ -7265,7 +7301,7 @@
         <v>#N/A</v>
       </c>
       <c r="U83" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84">
@@ -7330,7 +7366,7 @@
         <v>#N/A</v>
       </c>
       <c r="U84" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85">
@@ -7395,7 +7431,7 @@
         <v>#N/A</v>
       </c>
       <c r="U85" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86">
@@ -7460,7 +7496,7 @@
         <v>#N/A</v>
       </c>
       <c r="U86" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="87">
@@ -7525,7 +7561,7 @@
         <v>#N/A</v>
       </c>
       <c r="U87" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="88">
@@ -7590,7 +7626,7 @@
         <v>#N/A</v>
       </c>
       <c r="U88" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="89">
@@ -7655,7 +7691,7 @@
         <v>#N/A</v>
       </c>
       <c r="U89" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="90">
@@ -7720,7 +7756,7 @@
         <v>#N/A</v>
       </c>
       <c r="U90" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="91">
@@ -7785,7 +7821,7 @@
         <v>#N/A</v>
       </c>
       <c r="U91" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="92">
@@ -7850,7 +7886,7 @@
         <v>#N/A</v>
       </c>
       <c r="U92" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="93">
@@ -7915,7 +7951,7 @@
         <v>#N/A</v>
       </c>
       <c r="U93" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="94">
@@ -7980,7 +8016,7 @@
         <v>#N/A</v>
       </c>
       <c r="U94" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="95">
@@ -8045,7 +8081,7 @@
         <v>#N/A</v>
       </c>
       <c r="U95" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="96">
@@ -8110,7 +8146,7 @@
         <v>#N/A</v>
       </c>
       <c r="U96" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="97">
@@ -8175,7 +8211,7 @@
         <v>#N/A</v>
       </c>
       <c r="U97" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="98">
@@ -8240,7 +8276,7 @@
         <v>#N/A</v>
       </c>
       <c r="U98" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="99">
@@ -8305,7 +8341,7 @@
         <v>#N/A</v>
       </c>
       <c r="U99" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="100">
@@ -8370,7 +8406,7 @@
         <v>#N/A</v>
       </c>
       <c r="U100" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101">
@@ -8435,7 +8471,7 @@
         <v>#N/A</v>
       </c>
       <c r="U101" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="102">
@@ -8500,7 +8536,7 @@
         <v>#N/A</v>
       </c>
       <c r="U102" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="103">
@@ -8565,7 +8601,7 @@
         <v>#N/A</v>
       </c>
       <c r="U103" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104">
@@ -8630,7 +8666,7 @@
         <v>#N/A</v>
       </c>
       <c r="U104" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="105">
@@ -8695,7 +8731,7 @@
         <v>#N/A</v>
       </c>
       <c r="U105" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106">
@@ -8760,7 +8796,7 @@
         <v>#N/A</v>
       </c>
       <c r="U106" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="107">
@@ -8825,7 +8861,7 @@
         <v>#N/A</v>
       </c>
       <c r="U107" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="108">
@@ -8890,7 +8926,7 @@
         <v>#N/A</v>
       </c>
       <c r="U108" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="109">
@@ -8955,7 +8991,7 @@
         <v>#N/A</v>
       </c>
       <c r="U109" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="110">
@@ -9020,7 +9056,7 @@
         <v>#N/A</v>
       </c>
       <c r="U110" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="111">
@@ -9085,7 +9121,7 @@
         <v>#N/A</v>
       </c>
       <c r="U111" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="112">
@@ -9150,7 +9186,7 @@
         <v>#N/A</v>
       </c>
       <c r="U112" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="113">
@@ -9215,7 +9251,7 @@
         <v>#N/A</v>
       </c>
       <c r="U113" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="114">
@@ -9280,7 +9316,7 @@
         <v>#N/A</v>
       </c>
       <c r="U114" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="115">
@@ -9345,7 +9381,7 @@
         <v>#N/A</v>
       </c>
       <c r="U115" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="116">
@@ -9410,7 +9446,7 @@
         <v>#N/A</v>
       </c>
       <c r="U116" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="117">
@@ -9475,7 +9511,7 @@
         <v>#N/A</v>
       </c>
       <c r="U117" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="118">
@@ -9540,7 +9576,7 @@
         <v>#N/A</v>
       </c>
       <c r="U118" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="119">
@@ -9605,7 +9641,7 @@
         <v>#N/A</v>
       </c>
       <c r="U119" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="120">
@@ -9670,7 +9706,7 @@
         <v>#N/A</v>
       </c>
       <c r="U120" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="121">
@@ -9735,7 +9771,7 @@
         <v>#N/A</v>
       </c>
       <c r="U121" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="122">
@@ -9800,7 +9836,7 @@
         <v>#N/A</v>
       </c>
       <c r="U122" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="123">
@@ -9865,7 +9901,7 @@
         <v>#N/A</v>
       </c>
       <c r="U123" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="124">
@@ -9930,7 +9966,7 @@
         <v>#N/A</v>
       </c>
       <c r="U124" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="125">
@@ -9995,7 +10031,7 @@
         <v>#N/A</v>
       </c>
       <c r="U125" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="126">
@@ -10060,7 +10096,7 @@
         <v>#N/A</v>
       </c>
       <c r="U126" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="127">
@@ -10125,7 +10161,7 @@
         <v>#N/A</v>
       </c>
       <c r="U127" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="128">
@@ -10190,7 +10226,7 @@
         <v>#N/A</v>
       </c>
       <c r="U128" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="129">
@@ -10255,7 +10291,7 @@
         <v>#N/A</v>
       </c>
       <c r="U129" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="130">
@@ -10320,7 +10356,7 @@
         <v>#N/A</v>
       </c>
       <c r="U130" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="131">
@@ -10385,7 +10421,7 @@
         <v>#N/A</v>
       </c>
       <c r="U131" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="132">
@@ -10450,7 +10486,7 @@
         <v>#N/A</v>
       </c>
       <c r="U132" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="133">
@@ -10515,7 +10551,7 @@
         <v>#N/A</v>
       </c>
       <c r="U133" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="134">
@@ -10580,7 +10616,7 @@
         <v>#N/A</v>
       </c>
       <c r="U134" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="135">
@@ -10645,7 +10681,7 @@
         <v>#N/A</v>
       </c>
       <c r="U135" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="136">
@@ -10710,7 +10746,7 @@
         <v>#N/A</v>
       </c>
       <c r="U136" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="137">
@@ -10775,7 +10811,7 @@
         <v>#N/A</v>
       </c>
       <c r="U137" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="138">
@@ -10840,7 +10876,7 @@
         <v>#N/A</v>
       </c>
       <c r="U138" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="139">
@@ -10905,7 +10941,7 @@
         <v>#N/A</v>
       </c>
       <c r="U139" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="140">
@@ -10970,7 +11006,7 @@
         <v>#N/A</v>
       </c>
       <c r="U140" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="141">
@@ -11035,7 +11071,7 @@
         <v>#N/A</v>
       </c>
       <c r="U141" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="142">
@@ -11100,7 +11136,7 @@
         <v>#N/A</v>
       </c>
       <c r="U142" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="143">
@@ -11165,7 +11201,7 @@
         <v>#N/A</v>
       </c>
       <c r="U143" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="144">
@@ -11230,7 +11266,7 @@
         <v>#N/A</v>
       </c>
       <c r="U144" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="145">
@@ -11295,7 +11331,7 @@
         <v>#N/A</v>
       </c>
       <c r="U145" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="146">
@@ -11360,7 +11396,7 @@
         <v>#N/A</v>
       </c>
       <c r="U146" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="147">
@@ -11425,7 +11461,7 @@
         <v>#N/A</v>
       </c>
       <c r="U147" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="148">
@@ -11490,7 +11526,7 @@
         <v>#N/A</v>
       </c>
       <c r="U148" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="149">
@@ -11555,7 +11591,7 @@
         <v>#N/A</v>
       </c>
       <c r="U149" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="150">
@@ -11620,7 +11656,7 @@
         <v>#N/A</v>
       </c>
       <c r="U150" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="151">
@@ -11685,7 +11721,7 @@
         <v>#N/A</v>
       </c>
       <c r="U151" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="152">
@@ -11750,7 +11786,7 @@
         <v>#N/A</v>
       </c>
       <c r="U152" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="153">
@@ -11815,7 +11851,7 @@
         <v>#N/A</v>
       </c>
       <c r="U153" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="154">
@@ -11880,7 +11916,7 @@
         <v>#N/A</v>
       </c>
       <c r="U154" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="155">
@@ -11945,7 +11981,7 @@
         <v>#N/A</v>
       </c>
       <c r="U155" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="156">
@@ -12010,7 +12046,7 @@
         <v>#N/A</v>
       </c>
       <c r="U156" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="157">
@@ -12075,7 +12111,7 @@
         <v>#N/A</v>
       </c>
       <c r="U157" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="158">
@@ -12140,7 +12176,7 @@
         <v>#N/A</v>
       </c>
       <c r="U158" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="159">
@@ -12205,7 +12241,7 @@
         <v>#N/A</v>
       </c>
       <c r="U159" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="160">
@@ -12270,7 +12306,7 @@
         <v>#N/A</v>
       </c>
       <c r="U160" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="161">
@@ -12335,7 +12371,7 @@
         <v>#N/A</v>
       </c>
       <c r="U161" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="162">
@@ -12400,7 +12436,7 @@
         <v>#N/A</v>
       </c>
       <c r="U162" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="163">
@@ -12465,7 +12501,7 @@
         <v>#N/A</v>
       </c>
       <c r="U163" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="164">
@@ -12530,7 +12566,7 @@
         <v>#N/A</v>
       </c>
       <c r="U164" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="165">
@@ -12595,7 +12631,7 @@
         <v>#N/A</v>
       </c>
       <c r="U165" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="166">
@@ -12660,7 +12696,7 @@
         <v>#N/A</v>
       </c>
       <c r="U166" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="167">
@@ -12725,7 +12761,7 @@
         <v>#N/A</v>
       </c>
       <c r="U167" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="168">
@@ -12790,7 +12826,7 @@
         <v>#N/A</v>
       </c>
       <c r="U168" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="169">
@@ -12855,7 +12891,7 @@
         <v>#N/A</v>
       </c>
       <c r="U169" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="170">
@@ -12920,7 +12956,7 @@
         <v>#N/A</v>
       </c>
       <c r="U170" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="171">
@@ -12985,7 +13021,7 @@
         <v>#N/A</v>
       </c>
       <c r="U171" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="172">
@@ -13050,7 +13086,7 @@
         <v>#N/A</v>
       </c>
       <c r="U172" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="173">
@@ -13115,7 +13151,7 @@
         <v>#N/A</v>
       </c>
       <c r="U173" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="174">
@@ -13180,7 +13216,7 @@
         <v>#N/A</v>
       </c>
       <c r="U174" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="175">
@@ -13245,7 +13281,7 @@
         <v>#N/A</v>
       </c>
       <c r="U175" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="176">
@@ -13310,7 +13346,7 @@
         <v>#N/A</v>
       </c>
       <c r="U176" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="177">
@@ -13375,7 +13411,7 @@
         <v>#N/A</v>
       </c>
       <c r="U177" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="178">
@@ -13440,7 +13476,7 @@
         <v>#N/A</v>
       </c>
       <c r="U178" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="179">
@@ -13505,7 +13541,7 @@
         <v>#N/A</v>
       </c>
       <c r="U179" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="180">
@@ -13570,7 +13606,7 @@
         <v>#N/A</v>
       </c>
       <c r="U180" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="181">
@@ -13635,7 +13671,7 @@
         <v>#N/A</v>
       </c>
       <c r="U181" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="182">
@@ -13700,7 +13736,7 @@
         <v>#N/A</v>
       </c>
       <c r="U182" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="183">
@@ -13765,7 +13801,7 @@
         <v>#N/A</v>
       </c>
       <c r="U183" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="184">
@@ -13830,7 +13866,7 @@
         <v>#N/A</v>
       </c>
       <c r="U184" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="185">
@@ -13895,7 +13931,7 @@
         <v>#N/A</v>
       </c>
       <c r="U185" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="186">
@@ -13960,7 +13996,7 @@
         <v>#N/A</v>
       </c>
       <c r="U186" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="187">
@@ -14025,7 +14061,7 @@
         <v>#N/A</v>
       </c>
       <c r="U187" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="188">
@@ -14090,7 +14126,7 @@
         <v>#N/A</v>
       </c>
       <c r="U188" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="189">
@@ -14155,7 +14191,7 @@
         <v>#N/A</v>
       </c>
       <c r="U189" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="190">
@@ -14220,7 +14256,7 @@
         <v>#N/A</v>
       </c>
       <c r="U190" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="191">
@@ -14285,7 +14321,7 @@
         <v>#N/A</v>
       </c>
       <c r="U191" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="192">
@@ -14350,7 +14386,7 @@
         <v>#N/A</v>
       </c>
       <c r="U192" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="193">
@@ -14415,7 +14451,7 @@
         <v>#N/A</v>
       </c>
       <c r="U193" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="194">
@@ -14480,7 +14516,7 @@
         <v>#N/A</v>
       </c>
       <c r="U194" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="195">
@@ -14545,7 +14581,7 @@
         <v>#N/A</v>
       </c>
       <c r="U195" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="196">
@@ -14610,7 +14646,7 @@
         <v>#N/A</v>
       </c>
       <c r="U196" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="197">
@@ -14675,7 +14711,7 @@
         <v>#N/A</v>
       </c>
       <c r="U197" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="198">
@@ -14740,7 +14776,7 @@
         <v>#N/A</v>
       </c>
       <c r="U198" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="199">
@@ -14805,7 +14841,7 @@
         <v>#N/A</v>
       </c>
       <c r="U199" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="200">
@@ -14870,7 +14906,7 @@
         <v>#N/A</v>
       </c>
       <c r="U200" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="201">
@@ -14935,7 +14971,7 @@
         <v>#N/A</v>
       </c>
       <c r="U201" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="202">
@@ -15000,7 +15036,7 @@
         <v>#N/A</v>
       </c>
       <c r="U202" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="203">
@@ -15065,7 +15101,7 @@
         <v>#N/A</v>
       </c>
       <c r="U203" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="204">
@@ -15130,7 +15166,7 @@
         <v>#N/A</v>
       </c>
       <c r="U204" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="205">
@@ -15195,7 +15231,7 @@
         <v>#N/A</v>
       </c>
       <c r="U205" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="206">
@@ -15260,7 +15296,7 @@
         <v>#N/A</v>
       </c>
       <c r="U206" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="207">
@@ -15325,7 +15361,7 @@
         <v>#N/A</v>
       </c>
       <c r="U207" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="208">
@@ -15390,7 +15426,7 @@
         <v>#N/A</v>
       </c>
       <c r="U208" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="209">
@@ -15455,7 +15491,7 @@
         <v>#N/A</v>
       </c>
       <c r="U209" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="210">
@@ -15520,7 +15556,7 @@
         <v>#N/A</v>
       </c>
       <c r="U210" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="211">
@@ -15585,7 +15621,7 @@
         <v>#N/A</v>
       </c>
       <c r="U211" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="212">
@@ -15650,7 +15686,7 @@
         <v>#N/A</v>
       </c>
       <c r="U212" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="213">
@@ -15715,7 +15751,7 @@
         <v>#N/A</v>
       </c>
       <c r="U213" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="214">
@@ -15780,7 +15816,7 @@
         <v>#N/A</v>
       </c>
       <c r="U214" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="215">
@@ -15845,7 +15881,7 @@
         <v>#N/A</v>
       </c>
       <c r="U215" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="216">
@@ -15910,7 +15946,7 @@
         <v>#N/A</v>
       </c>
       <c r="U216" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="217">
@@ -15975,7 +16011,7 @@
         <v>#N/A</v>
       </c>
       <c r="U217" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="218">
@@ -16040,7 +16076,7 @@
         <v>#N/A</v>
       </c>
       <c r="U218" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="219">
@@ -16105,7 +16141,7 @@
         <v>#N/A</v>
       </c>
       <c r="U219" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="220">
@@ -16170,7 +16206,7 @@
         <v>#N/A</v>
       </c>
       <c r="U220" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="221">
@@ -16235,7 +16271,7 @@
         <v>#N/A</v>
       </c>
       <c r="U221" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="222">
@@ -16300,7 +16336,7 @@
         <v>#N/A</v>
       </c>
       <c r="U222" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="223">
@@ -16365,7 +16401,7 @@
         <v>#N/A</v>
       </c>
       <c r="U223" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="224">
@@ -16430,7 +16466,7 @@
         <v>#N/A</v>
       </c>
       <c r="U224" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="225">
@@ -16495,7 +16531,7 @@
         <v>#N/A</v>
       </c>
       <c r="U225" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="226">
@@ -16560,7 +16596,7 @@
         <v>#N/A</v>
       </c>
       <c r="U226" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="227">
@@ -16625,7 +16661,7 @@
         <v>#N/A</v>
       </c>
       <c r="U227" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="228">
@@ -16690,7 +16726,7 @@
         <v>#N/A</v>
       </c>
       <c r="U228" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="229">
@@ -16755,7 +16791,7 @@
         <v>#N/A</v>
       </c>
       <c r="U229" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="230">
@@ -16820,7 +16856,7 @@
         <v>#N/A</v>
       </c>
       <c r="U230" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="231">
@@ -16885,7 +16921,7 @@
         <v>#N/A</v>
       </c>
       <c r="U231" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="232">
@@ -16950,7 +16986,7 @@
         <v>#N/A</v>
       </c>
       <c r="U232" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="233">
@@ -17015,7 +17051,7 @@
         <v>#N/A</v>
       </c>
       <c r="U233" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="234">
@@ -17080,7 +17116,7 @@
         <v>#N/A</v>
       </c>
       <c r="U234" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="235">
@@ -17145,7 +17181,7 @@
         <v>#N/A</v>
       </c>
       <c r="U235" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="236">
@@ -17210,7 +17246,7 @@
         <v>#N/A</v>
       </c>
       <c r="U236" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="237">
@@ -17275,7 +17311,7 @@
         <v>#N/A</v>
       </c>
       <c r="U237" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="238">
@@ -17340,7 +17376,7 @@
         <v>#N/A</v>
       </c>
       <c r="U238" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="239">
@@ -17405,7 +17441,7 @@
         <v>#N/A</v>
       </c>
       <c r="U239" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="240">
@@ -17470,7 +17506,7 @@
         <v>#N/A</v>
       </c>
       <c r="U240" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="241">
@@ -17535,7 +17571,7 @@
         <v>#N/A</v>
       </c>
       <c r="U241" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="242">
@@ -17600,7 +17636,7 @@
         <v>#N/A</v>
       </c>
       <c r="U242" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="243">
@@ -17665,7 +17701,7 @@
         <v>#N/A</v>
       </c>
       <c r="U243" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="244">
@@ -17730,7 +17766,7 @@
         <v>#N/A</v>
       </c>
       <c r="U244" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="245">
@@ -17795,7 +17831,7 @@
         <v>#N/A</v>
       </c>
       <c r="U245" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="246">
@@ -17860,7 +17896,7 @@
         <v>#N/A</v>
       </c>
       <c r="U246" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="247">
@@ -17925,7 +17961,7 @@
         <v>#N/A</v>
       </c>
       <c r="U247" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="248">
@@ -17990,7 +18026,7 @@
         <v>#N/A</v>
       </c>
       <c r="U248" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="249">
@@ -18055,7 +18091,7 @@
         <v>#N/A</v>
       </c>
       <c r="U249" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="250">
@@ -18120,7 +18156,7 @@
         <v>#N/A</v>
       </c>
       <c r="U250" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="251">
@@ -18185,7 +18221,7 @@
         <v>#N/A</v>
       </c>
       <c r="U251" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="252">
@@ -18250,7 +18286,7 @@
         <v>#N/A</v>
       </c>
       <c r="U252" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="253">
@@ -18315,7 +18351,7 @@
         <v>#N/A</v>
       </c>
       <c r="U253" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="254">
@@ -18380,7 +18416,7 @@
         <v>#N/A</v>
       </c>
       <c r="U254" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="255">
@@ -18445,7 +18481,7 @@
         <v>#N/A</v>
       </c>
       <c r="U255" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="256">
@@ -18510,7 +18546,7 @@
         <v>#N/A</v>
       </c>
       <c r="U256" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="257">
@@ -18575,7 +18611,7 @@
         <v>#N/A</v>
       </c>
       <c r="U257" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="258">
@@ -18640,7 +18676,7 @@
         <v>#N/A</v>
       </c>
       <c r="U258" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="259">
@@ -18705,7 +18741,7 @@
         <v>#N/A</v>
       </c>
       <c r="U259" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="260">
@@ -18770,7 +18806,7 @@
         <v>#N/A</v>
       </c>
       <c r="U260" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="261">
@@ -18835,7 +18871,7 @@
         <v>#N/A</v>
       </c>
       <c r="U261" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="262">
@@ -18900,7 +18936,7 @@
         <v>#N/A</v>
       </c>
       <c r="U262" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="263">
@@ -18965,7 +19001,7 @@
         <v>#N/A</v>
       </c>
       <c r="U263" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="264">
@@ -19030,7 +19066,7 @@
         <v>#N/A</v>
       </c>
       <c r="U264" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="265">
@@ -19095,7 +19131,7 @@
         <v>#N/A</v>
       </c>
       <c r="U265" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="266">
@@ -19160,7 +19196,7 @@
         <v>#N/A</v>
       </c>
       <c r="U266" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="267">
@@ -19225,7 +19261,7 @@
         <v>#N/A</v>
       </c>
       <c r="U267" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="268">
@@ -19290,7 +19326,7 @@
         <v>#N/A</v>
       </c>
       <c r="U268" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="269">
@@ -19355,7 +19391,7 @@
         <v>#N/A</v>
       </c>
       <c r="U269" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="270">
@@ -19420,7 +19456,7 @@
         <v>#N/A</v>
       </c>
       <c r="U270" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="271">
@@ -19485,7 +19521,7 @@
         <v>#N/A</v>
       </c>
       <c r="U271" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="272">
@@ -19550,7 +19586,7 @@
         <v>#N/A</v>
       </c>
       <c r="U272" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="273">
@@ -19615,7 +19651,7 @@
         <v>#N/A</v>
       </c>
       <c r="U273" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="274">
@@ -19680,7 +19716,7 @@
         <v>#N/A</v>
       </c>
       <c r="U274" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="275">
@@ -19745,7 +19781,7 @@
         <v>#N/A</v>
       </c>
       <c r="U275" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="276">
@@ -19810,7 +19846,7 @@
         <v>#N/A</v>
       </c>
       <c r="U276" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="277">
@@ -19875,7 +19911,7 @@
         <v>#N/A</v>
       </c>
       <c r="U277" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="278">
@@ -19940,7 +19976,7 @@
         <v>#N/A</v>
       </c>
       <c r="U278" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="279">
@@ -20005,7 +20041,7 @@
         <v>#N/A</v>
       </c>
       <c r="U279" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="280">
@@ -20046,7 +20082,7 @@
         <v>0.0</v>
       </c>
       <c r="M280" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="N280" t="s">
         <v>351</v>
@@ -20055,7 +20091,7 @@
         <v>3.0</v>
       </c>
       <c r="P280" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q280" t="n">
         <v>12554.0</v>
@@ -20070,7 +20106,7 @@
         <v>#N/A</v>
       </c>
       <c r="U280" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="281">
@@ -20107,35 +20143,35 @@
       <c r="K281" t="s">
         <v>346</v>
       </c>
-      <c r="L281" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M281" t="e">
-        <v>#N/A</v>
+      <c r="L281" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>1.8</v>
       </c>
       <c r="N281" t="s">
         <v>349</v>
       </c>
-      <c r="O281" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P281" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q281" t="e">
-        <v>#N/A</v>
+      <c r="O281" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P281" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>12405.0</v>
       </c>
       <c r="R281" t="s">
         <v>364</v>
       </c>
       <c r="S281" t="s">
-        <v>336</v>
+        <v>396</v>
       </c>
       <c r="T281" t="e">
         <v>#N/A</v>
       </c>
       <c r="U281" t="s">
-        <v>548</v>
+        <v>606</v>
       </c>
     </row>
     <row r="282">
@@ -20172,35 +20208,35 @@
       <c r="K282" t="s">
         <v>345</v>
       </c>
-      <c r="L282" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M282" t="e">
-        <v>#N/A</v>
+      <c r="L282" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>3.0</v>
       </c>
       <c r="N282" t="s">
         <v>350</v>
       </c>
-      <c r="O282" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P282" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q282" t="e">
-        <v>#N/A</v>
+      <c r="O282" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P282" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>13607.0</v>
       </c>
       <c r="R282" t="s">
         <v>363</v>
       </c>
       <c r="S282" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="T282" t="e">
         <v>#N/A</v>
       </c>
       <c r="U282" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
     </row>
     <row r="283">
@@ -20237,35 +20273,35 @@
       <c r="K283" t="s">
         <v>355</v>
       </c>
-      <c r="L283" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M283" t="e">
-        <v>#N/A</v>
+      <c r="L283" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>1.5</v>
       </c>
       <c r="N283" t="s">
         <v>354</v>
       </c>
-      <c r="O283" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P283" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q283" t="e">
-        <v>#N/A</v>
+      <c r="O283" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>57000.0</v>
       </c>
       <c r="R283" t="s">
         <v>373</v>
       </c>
       <c r="S283" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
       <c r="T283" t="e">
         <v>#N/A</v>
       </c>
       <c r="U283" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
     </row>
     <row r="284">
@@ -20302,35 +20338,35 @@
       <c r="K284" t="s">
         <v>352</v>
       </c>
-      <c r="L284" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M284" t="e">
-        <v>#N/A</v>
+      <c r="L284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>1.1</v>
       </c>
       <c r="N284" t="s">
         <v>353</v>
       </c>
-      <c r="O284" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P284" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q284" t="e">
-        <v>#N/A</v>
+      <c r="O284" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>14431.0</v>
       </c>
       <c r="R284" t="s">
         <v>370</v>
       </c>
       <c r="S284" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="T284" t="e">
         <v>#N/A</v>
       </c>
       <c r="U284" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
     </row>
     <row r="285">
@@ -20367,35 +20403,35 @@
       <c r="K285" t="s">
         <v>344</v>
       </c>
-      <c r="L285" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M285" t="e">
-        <v>#N/A</v>
+      <c r="L285" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>1.8</v>
       </c>
       <c r="N285" t="s">
         <v>342</v>
       </c>
-      <c r="O285" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P285" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q285" t="e">
-        <v>#N/A</v>
+      <c r="O285" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>17311.0</v>
       </c>
       <c r="R285" t="s">
         <v>362</v>
       </c>
       <c r="S285" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="T285" t="e">
         <v>#N/A</v>
       </c>
       <c r="U285" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
     </row>
     <row r="286">
@@ -20432,35 +20468,35 @@
       <c r="K286" t="s">
         <v>351</v>
       </c>
-      <c r="L286" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M286" t="e">
-        <v>#N/A</v>
+      <c r="L286" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>2.1</v>
       </c>
       <c r="N286" t="s">
         <v>343</v>
       </c>
-      <c r="O286" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P286" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q286" t="e">
-        <v>#N/A</v>
+      <c r="O286" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P286" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>12422.0</v>
       </c>
       <c r="R286" t="s">
         <v>369</v>
       </c>
       <c r="S286" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="T286" t="e">
         <v>#N/A</v>
       </c>
       <c r="U286" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
     </row>
     <row r="287">
@@ -20497,35 +20533,35 @@
       <c r="K287" t="s">
         <v>339</v>
       </c>
-      <c r="L287" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M287" t="e">
-        <v>#N/A</v>
+      <c r="L287" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>1.0</v>
       </c>
       <c r="N287" t="s">
         <v>348</v>
       </c>
-      <c r="O287" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P287" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q287" t="e">
-        <v>#N/A</v>
+      <c r="O287" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P287" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>43123.0</v>
       </c>
       <c r="R287" t="s">
         <v>357</v>
       </c>
       <c r="S287" t="s">
-        <v>336</v>
+        <v>398</v>
       </c>
       <c r="T287" t="e">
         <v>#N/A</v>
       </c>
       <c r="U287" t="s">
-        <v>545</v>
+        <v>612</v>
       </c>
     </row>
     <row r="288">
@@ -20562,35 +20598,35 @@
       <c r="K288" t="s">
         <v>341</v>
       </c>
-      <c r="L288" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M288" t="e">
-        <v>#N/A</v>
+      <c r="L288" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1.6</v>
       </c>
       <c r="N288" t="s">
         <v>347</v>
       </c>
-      <c r="O288" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P288" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q288" t="e">
-        <v>#N/A</v>
+      <c r="O288" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P288" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>36500.0</v>
       </c>
       <c r="R288" t="s">
         <v>359</v>
       </c>
       <c r="S288" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
       <c r="T288" t="e">
         <v>#N/A</v>
       </c>
       <c r="U288" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
     </row>
     <row r="289">
@@ -20627,35 +20663,35 @@
       <c r="K289" t="s">
         <v>338</v>
       </c>
-      <c r="L289" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M289" t="e">
-        <v>#N/A</v>
+      <c r="L289" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>1.6</v>
       </c>
       <c r="N289" t="s">
         <v>340</v>
       </c>
-      <c r="O289" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P289" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q289" t="e">
-        <v>#N/A</v>
+      <c r="O289" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P289" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>50000.0</v>
       </c>
       <c r="R289" t="s">
         <v>356</v>
       </c>
       <c r="S289" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="T289" t="e">
         <v>#N/A</v>
       </c>
       <c r="U289" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
     </row>
     <row r="290">
@@ -20720,7 +20756,7 @@
         <v>#N/A</v>
       </c>
       <c r="U290" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="291">
@@ -20785,7 +20821,7 @@
         <v>#N/A</v>
       </c>
       <c r="U291" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="292">
@@ -20850,7 +20886,7 @@
         <v>#N/A</v>
       </c>
       <c r="U292" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="293">
@@ -20915,7 +20951,7 @@
         <v>#N/A</v>
       </c>
       <c r="U293" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="294">
@@ -20980,7 +21016,7 @@
         <v>#N/A</v>
       </c>
       <c r="U294" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="295">
@@ -21045,7 +21081,7 @@
         <v>#N/A</v>
       </c>
       <c r="U295" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="296">
@@ -21110,7 +21146,7 @@
         <v>#N/A</v>
       </c>
       <c r="U296" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="297">
@@ -21175,7 +21211,7 @@
         <v>#N/A</v>
       </c>
       <c r="U297" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="298">
@@ -21240,7 +21276,7 @@
         <v>#N/A</v>
       </c>
       <c r="U298" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="299">
@@ -21305,7 +21341,7 @@
         <v>#N/A</v>
       </c>
       <c r="U299" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="300">
@@ -21370,7 +21406,7 @@
         <v>#N/A</v>
       </c>
       <c r="U300" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="301">
@@ -21435,7 +21471,7 @@
         <v>#N/A</v>
       </c>
       <c r="U301" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="302">
@@ -21500,7 +21536,7 @@
         <v>#N/A</v>
       </c>
       <c r="U302" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="303">
@@ -21565,7 +21601,7 @@
         <v>#N/A</v>
       </c>
       <c r="U303" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="304">
@@ -21630,7 +21666,7 @@
         <v>#N/A</v>
       </c>
       <c r="U304" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="305">
@@ -21695,7 +21731,7 @@
         <v>#N/A</v>
       </c>
       <c r="U305" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="306">
@@ -21760,7 +21796,7 @@
         <v>#N/A</v>
       </c>
       <c r="U306" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="307">
@@ -21825,7 +21861,7 @@
         <v>#N/A</v>
       </c>
       <c r="U307" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/d2_match_results.xlsx
+++ b/d2_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="637">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -1211,6 +1211,18 @@
     <t>Nicolas Winter</t>
   </si>
   <si>
+    <t>Bastian Dankert</t>
+  </si>
+  <si>
+    <t>Daniel Schlager</t>
+  </si>
+  <si>
+    <t>Martin Petersen</t>
+  </si>
+  <si>
+    <t>Frank Willenborg</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/ee0af24d/Koln-Hamburger-SV-August-2-2024-2-Bundesliga</t>
   </si>
   <si>
@@ -1331,6 +1343,9 @@
     <t>https://fbref.com/en/stathead/matchup/teams/fe686760/b1278397/Elversberg-vs-Dusseldorf-History</t>
   </si>
   <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/60b5e41f/Darmstadt-98-vs-Hannover-96-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/291257b3/2818f8bc/Ulm-vs-Hertha-BSC-History</t>
   </si>
   <si>
@@ -1343,9 +1358,6 @@
     <t>https://fbref.com/en/stathead/matchup/teams/8107958d/73a27a73/Eintracht-Braunschweig-vs-Kaiserslautern-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/60b5e41f/Darmstadt-98-vs-Hannover-96-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/c539e393/73a27a73/Schalke-04-vs-Kaiserslautern-History</t>
   </si>
   <si>
@@ -1857,6 +1869,60 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/f3e71cb0/Koln-Karlsruher-September-29-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e26d525b/Paderborn-07-Jahn-Regensburg-October-4-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fa234ecd/Karlsruher-Darmstadt-98-October-4-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/628732fa/Elversberg-Kaiserslautern-October-5-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/86d577fe/Koln-Ulm-October-5-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c21a122b/Nurnberg-Preussen-Munster-October-5-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f28f7197/Schalke-04-Hertha-BSC-October-5-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/14876931/Magdeburg-Greuther-Furth-October-6-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6c03912d/Eintracht-Braunschweig-Hannover-96-October-6-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6d8adfc1/Dusseldorf-Hamburger-SV-October-6-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/84169840/Hertha-BSC-Eintracht-Braunschweig-October-18-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d46eedcd/Darmstadt-98-Koln-October-18-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/03499101/Hannover-96-Schalke-04-October-19-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/06d88ab0/Jahn-Regensburg-Dusseldorf-October-19-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/49184330/Preussen-Munster-Elversberg-October-19-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8d2d40c4/Kaiserslautern-Paderborn-07-October-19-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2a4d5aa3/Ulm-Karlsruher-October-20-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bdb9c218/Greuther-Furth-Nurnberg-October-20-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fa500c9e/Hamburger-SV-Magdeburg-October-20-2024-2-Bundesliga</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +2102,7 @@
         <v>#N/A</v>
       </c>
       <c r="U2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3">
@@ -2101,7 +2167,7 @@
         <v>#N/A</v>
       </c>
       <c r="U3" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4">
@@ -2166,7 +2232,7 @@
         <v>#N/A</v>
       </c>
       <c r="U4" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5">
@@ -2231,7 +2297,7 @@
         <v>#N/A</v>
       </c>
       <c r="U5" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6">
@@ -2296,7 +2362,7 @@
         <v>#N/A</v>
       </c>
       <c r="U6" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7">
@@ -2361,7 +2427,7 @@
         <v>#N/A</v>
       </c>
       <c r="U7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8">
@@ -2426,7 +2492,7 @@
         <v>#N/A</v>
       </c>
       <c r="U8" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9">
@@ -2491,7 +2557,7 @@
         <v>#N/A</v>
       </c>
       <c r="U9" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10">
@@ -2556,7 +2622,7 @@
         <v>#N/A</v>
       </c>
       <c r="U10" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11">
@@ -2621,7 +2687,7 @@
         <v>#N/A</v>
       </c>
       <c r="U11" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12">
@@ -2686,7 +2752,7 @@
         <v>#N/A</v>
       </c>
       <c r="U12" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13">
@@ -2751,7 +2817,7 @@
         <v>#N/A</v>
       </c>
       <c r="U13" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14">
@@ -2816,7 +2882,7 @@
         <v>#N/A</v>
       </c>
       <c r="U14" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15">
@@ -2881,7 +2947,7 @@
         <v>#N/A</v>
       </c>
       <c r="U15" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16">
@@ -2946,7 +3012,7 @@
         <v>#N/A</v>
       </c>
       <c r="U16" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17">
@@ -3011,7 +3077,7 @@
         <v>#N/A</v>
       </c>
       <c r="U17" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18">
@@ -3076,7 +3142,7 @@
         <v>#N/A</v>
       </c>
       <c r="U18" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19">
@@ -3141,7 +3207,7 @@
         <v>#N/A</v>
       </c>
       <c r="U19" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20">
@@ -3206,7 +3272,7 @@
         <v>#N/A</v>
       </c>
       <c r="U20" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21">
@@ -3271,7 +3337,7 @@
         <v>#N/A</v>
       </c>
       <c r="U21" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22">
@@ -3336,7 +3402,7 @@
         <v>#N/A</v>
       </c>
       <c r="U22" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23">
@@ -3401,7 +3467,7 @@
         <v>#N/A</v>
       </c>
       <c r="U23" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24">
@@ -3466,7 +3532,7 @@
         <v>#N/A</v>
       </c>
       <c r="U24" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25">
@@ -3531,7 +3597,7 @@
         <v>#N/A</v>
       </c>
       <c r="U25" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26">
@@ -3596,7 +3662,7 @@
         <v>#N/A</v>
       </c>
       <c r="U26" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27">
@@ -3661,7 +3727,7 @@
         <v>#N/A</v>
       </c>
       <c r="U27" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28">
@@ -3726,7 +3792,7 @@
         <v>#N/A</v>
       </c>
       <c r="U28" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29">
@@ -3791,7 +3857,7 @@
         <v>#N/A</v>
       </c>
       <c r="U29" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30">
@@ -3856,7 +3922,7 @@
         <v>#N/A</v>
       </c>
       <c r="U30" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31">
@@ -3921,7 +3987,7 @@
         <v>#N/A</v>
       </c>
       <c r="U31" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32">
@@ -3986,7 +4052,7 @@
         <v>#N/A</v>
       </c>
       <c r="U32" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33">
@@ -4051,7 +4117,7 @@
         <v>#N/A</v>
       </c>
       <c r="U33" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34">
@@ -4116,7 +4182,7 @@
         <v>#N/A</v>
       </c>
       <c r="U34" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="35">
@@ -4181,7 +4247,7 @@
         <v>#N/A</v>
       </c>
       <c r="U35" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36">
@@ -4246,7 +4312,7 @@
         <v>#N/A</v>
       </c>
       <c r="U36" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37">
@@ -4311,7 +4377,7 @@
         <v>#N/A</v>
       </c>
       <c r="U37" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38">
@@ -4376,7 +4442,7 @@
         <v>#N/A</v>
       </c>
       <c r="U38" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39">
@@ -4441,7 +4507,7 @@
         <v>#N/A</v>
       </c>
       <c r="U39" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40">
@@ -4506,7 +4572,7 @@
         <v>#N/A</v>
       </c>
       <c r="U40" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41">
@@ -4571,7 +4637,7 @@
         <v>#N/A</v>
       </c>
       <c r="U41" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42">
@@ -4606,7 +4672,7 @@
         <v>333</v>
       </c>
       <c r="K42" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L42" t="e">
         <v>#N/A</v>
@@ -4615,7 +4681,7 @@
         <v>#N/A</v>
       </c>
       <c r="N42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O42" t="e">
         <v>#N/A</v>
@@ -4627,7 +4693,7 @@
         <v>#N/A</v>
       </c>
       <c r="R42" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="S42" t="s">
         <v>336</v>
@@ -4636,7 +4702,7 @@
         <v>#N/A</v>
       </c>
       <c r="U42" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43">
@@ -4668,10 +4734,10 @@
         <v>45619.0</v>
       </c>
       <c r="J43" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K43" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="L43" t="e">
         <v>#N/A</v>
@@ -4680,7 +4746,7 @@
         <v>#N/A</v>
       </c>
       <c r="N43" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O43" t="e">
         <v>#N/A</v>
@@ -4692,7 +4758,7 @@
         <v>#N/A</v>
       </c>
       <c r="R43" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="S43" t="s">
         <v>336</v>
@@ -4701,7 +4767,7 @@
         <v>#N/A</v>
       </c>
       <c r="U43" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44">
@@ -4727,16 +4793,16 @@
         <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I44" t="n" s="2">
-        <v>45620.0</v>
+        <v>45619.0</v>
       </c>
       <c r="J44" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K44" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L44" t="e">
         <v>#N/A</v>
@@ -4745,7 +4811,7 @@
         <v>#N/A</v>
       </c>
       <c r="N44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O44" t="e">
         <v>#N/A</v>
@@ -4757,7 +4823,7 @@
         <v>#N/A</v>
       </c>
       <c r="R44" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="S44" t="s">
         <v>336</v>
@@ -4766,7 +4832,7 @@
         <v>#N/A</v>
       </c>
       <c r="U44" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45">
@@ -4801,7 +4867,7 @@
         <v>334</v>
       </c>
       <c r="K45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L45" t="e">
         <v>#N/A</v>
@@ -4810,7 +4876,7 @@
         <v>#N/A</v>
       </c>
       <c r="N45" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="O45" t="e">
         <v>#N/A</v>
@@ -4822,7 +4888,7 @@
         <v>#N/A</v>
       </c>
       <c r="R45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S45" t="s">
         <v>336</v>
@@ -4831,7 +4897,7 @@
         <v>#N/A</v>
       </c>
       <c r="U45" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46">
@@ -4866,7 +4932,7 @@
         <v>334</v>
       </c>
       <c r="K46" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="L46" t="e">
         <v>#N/A</v>
@@ -4875,7 +4941,7 @@
         <v>#N/A</v>
       </c>
       <c r="N46" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="O46" t="e">
         <v>#N/A</v>
@@ -4887,7 +4953,7 @@
         <v>#N/A</v>
       </c>
       <c r="R46" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="S46" t="s">
         <v>336</v>
@@ -4896,7 +4962,7 @@
         <v>#N/A</v>
       </c>
       <c r="U46" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47">
@@ -4961,7 +5027,7 @@
         <v>#N/A</v>
       </c>
       <c r="U47" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48">
@@ -5026,7 +5092,7 @@
         <v>#N/A</v>
       </c>
       <c r="U48" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49">
@@ -5091,7 +5157,7 @@
         <v>#N/A</v>
       </c>
       <c r="U49" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50">
@@ -5156,7 +5222,7 @@
         <v>#N/A</v>
       </c>
       <c r="U50" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51">
@@ -5221,7 +5287,7 @@
         <v>#N/A</v>
       </c>
       <c r="U51" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52">
@@ -5286,7 +5352,7 @@
         <v>#N/A</v>
       </c>
       <c r="U52" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53">
@@ -5351,7 +5417,7 @@
         <v>#N/A</v>
       </c>
       <c r="U53" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54">
@@ -5416,7 +5482,7 @@
         <v>#N/A</v>
       </c>
       <c r="U54" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55">
@@ -5481,7 +5547,7 @@
         <v>#N/A</v>
       </c>
       <c r="U55" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56">
@@ -5546,7 +5612,7 @@
         <v>#N/A</v>
       </c>
       <c r="U56" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57">
@@ -5611,7 +5677,7 @@
         <v>#N/A</v>
       </c>
       <c r="U57" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58">
@@ -5676,7 +5742,7 @@
         <v>#N/A</v>
       </c>
       <c r="U58" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59">
@@ -5741,7 +5807,7 @@
         <v>#N/A</v>
       </c>
       <c r="U59" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60">
@@ -5806,7 +5872,7 @@
         <v>#N/A</v>
       </c>
       <c r="U60" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61">
@@ -5871,7 +5937,7 @@
         <v>#N/A</v>
       </c>
       <c r="U61" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62">
@@ -5936,7 +6002,7 @@
         <v>#N/A</v>
       </c>
       <c r="U62" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63">
@@ -6001,7 +6067,7 @@
         <v>#N/A</v>
       </c>
       <c r="U63" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64">
@@ -6066,7 +6132,7 @@
         <v>#N/A</v>
       </c>
       <c r="U64" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65">
@@ -6131,7 +6197,7 @@
         <v>#N/A</v>
       </c>
       <c r="U65" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66">
@@ -6196,7 +6262,7 @@
         <v>#N/A</v>
       </c>
       <c r="U66" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67">
@@ -6261,7 +6327,7 @@
         <v>#N/A</v>
       </c>
       <c r="U67" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68">
@@ -6326,7 +6392,7 @@
         <v>#N/A</v>
       </c>
       <c r="U68" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69">
@@ -6391,7 +6457,7 @@
         <v>#N/A</v>
       </c>
       <c r="U69" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70">
@@ -6456,7 +6522,7 @@
         <v>#N/A</v>
       </c>
       <c r="U70" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71">
@@ -6521,7 +6587,7 @@
         <v>#N/A</v>
       </c>
       <c r="U71" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72">
@@ -6586,7 +6652,7 @@
         <v>#N/A</v>
       </c>
       <c r="U72" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73">
@@ -6651,7 +6717,7 @@
         <v>#N/A</v>
       </c>
       <c r="U73" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74">
@@ -6716,7 +6782,7 @@
         <v>#N/A</v>
       </c>
       <c r="U74" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75">
@@ -6781,7 +6847,7 @@
         <v>#N/A</v>
       </c>
       <c r="U75" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76">
@@ -6846,7 +6912,7 @@
         <v>#N/A</v>
       </c>
       <c r="U76" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77">
@@ -6911,7 +6977,7 @@
         <v>#N/A</v>
       </c>
       <c r="U77" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78">
@@ -6976,7 +7042,7 @@
         <v>#N/A</v>
       </c>
       <c r="U78" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79">
@@ -7041,7 +7107,7 @@
         <v>#N/A</v>
       </c>
       <c r="U79" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="80">
@@ -7106,7 +7172,7 @@
         <v>#N/A</v>
       </c>
       <c r="U80" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81">
@@ -7171,7 +7237,7 @@
         <v>#N/A</v>
       </c>
       <c r="U81" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82">
@@ -7236,7 +7302,7 @@
         <v>#N/A</v>
       </c>
       <c r="U82" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83">
@@ -7301,7 +7367,7 @@
         <v>#N/A</v>
       </c>
       <c r="U83" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84">
@@ -7366,7 +7432,7 @@
         <v>#N/A</v>
       </c>
       <c r="U84" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85">
@@ -7431,7 +7497,7 @@
         <v>#N/A</v>
       </c>
       <c r="U85" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="86">
@@ -7496,7 +7562,7 @@
         <v>#N/A</v>
       </c>
       <c r="U86" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87">
@@ -7561,7 +7627,7 @@
         <v>#N/A</v>
       </c>
       <c r="U87" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="88">
@@ -7626,7 +7692,7 @@
         <v>#N/A</v>
       </c>
       <c r="U88" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="89">
@@ -7691,7 +7757,7 @@
         <v>#N/A</v>
       </c>
       <c r="U89" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90">
@@ -7756,7 +7822,7 @@
         <v>#N/A</v>
       </c>
       <c r="U90" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="91">
@@ -7821,7 +7887,7 @@
         <v>#N/A</v>
       </c>
       <c r="U91" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92">
@@ -7886,7 +7952,7 @@
         <v>#N/A</v>
       </c>
       <c r="U92" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="93">
@@ -7951,7 +8017,7 @@
         <v>#N/A</v>
       </c>
       <c r="U93" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="94">
@@ -8016,7 +8082,7 @@
         <v>#N/A</v>
       </c>
       <c r="U94" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="95">
@@ -8081,7 +8147,7 @@
         <v>#N/A</v>
       </c>
       <c r="U95" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="96">
@@ -8146,7 +8212,7 @@
         <v>#N/A</v>
       </c>
       <c r="U96" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="97">
@@ -8211,7 +8277,7 @@
         <v>#N/A</v>
       </c>
       <c r="U97" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="98">
@@ -8276,7 +8342,7 @@
         <v>#N/A</v>
       </c>
       <c r="U98" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99">
@@ -8341,7 +8407,7 @@
         <v>#N/A</v>
       </c>
       <c r="U99" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100">
@@ -8406,7 +8472,7 @@
         <v>#N/A</v>
       </c>
       <c r="U100" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="101">
@@ -8471,7 +8537,7 @@
         <v>#N/A</v>
       </c>
       <c r="U101" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102">
@@ -8536,7 +8602,7 @@
         <v>#N/A</v>
       </c>
       <c r="U102" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="103">
@@ -8601,7 +8667,7 @@
         <v>#N/A</v>
       </c>
       <c r="U103" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104">
@@ -8666,7 +8732,7 @@
         <v>#N/A</v>
       </c>
       <c r="U104" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105">
@@ -8731,7 +8797,7 @@
         <v>#N/A</v>
       </c>
       <c r="U105" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="106">
@@ -8796,7 +8862,7 @@
         <v>#N/A</v>
       </c>
       <c r="U106" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="107">
@@ -8861,7 +8927,7 @@
         <v>#N/A</v>
       </c>
       <c r="U107" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="108">
@@ -8926,7 +8992,7 @@
         <v>#N/A</v>
       </c>
       <c r="U108" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="109">
@@ -8991,7 +9057,7 @@
         <v>#N/A</v>
       </c>
       <c r="U109" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="110">
@@ -9056,7 +9122,7 @@
         <v>#N/A</v>
       </c>
       <c r="U110" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="111">
@@ -9121,7 +9187,7 @@
         <v>#N/A</v>
       </c>
       <c r="U111" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="112">
@@ -9186,7 +9252,7 @@
         <v>#N/A</v>
       </c>
       <c r="U112" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113">
@@ -9251,7 +9317,7 @@
         <v>#N/A</v>
       </c>
       <c r="U113" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="114">
@@ -9316,7 +9382,7 @@
         <v>#N/A</v>
       </c>
       <c r="U114" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="115">
@@ -9381,7 +9447,7 @@
         <v>#N/A</v>
       </c>
       <c r="U115" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116">
@@ -9446,7 +9512,7 @@
         <v>#N/A</v>
       </c>
       <c r="U116" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="117">
@@ -9511,7 +9577,7 @@
         <v>#N/A</v>
       </c>
       <c r="U117" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="118">
@@ -9576,7 +9642,7 @@
         <v>#N/A</v>
       </c>
       <c r="U118" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="119">
@@ -9641,7 +9707,7 @@
         <v>#N/A</v>
       </c>
       <c r="U119" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="120">
@@ -9706,7 +9772,7 @@
         <v>#N/A</v>
       </c>
       <c r="U120" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="121">
@@ -9771,7 +9837,7 @@
         <v>#N/A</v>
       </c>
       <c r="U121" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="122">
@@ -9836,7 +9902,7 @@
         <v>#N/A</v>
       </c>
       <c r="U122" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="123">
@@ -9901,7 +9967,7 @@
         <v>#N/A</v>
       </c>
       <c r="U123" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="124">
@@ -9966,7 +10032,7 @@
         <v>#N/A</v>
       </c>
       <c r="U124" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="125">
@@ -10031,7 +10097,7 @@
         <v>#N/A</v>
       </c>
       <c r="U125" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="126">
@@ -10096,7 +10162,7 @@
         <v>#N/A</v>
       </c>
       <c r="U126" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="127">
@@ -10161,7 +10227,7 @@
         <v>#N/A</v>
       </c>
       <c r="U127" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="128">
@@ -10226,7 +10292,7 @@
         <v>#N/A</v>
       </c>
       <c r="U128" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="129">
@@ -10291,7 +10357,7 @@
         <v>#N/A</v>
       </c>
       <c r="U129" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="130">
@@ -10356,7 +10422,7 @@
         <v>#N/A</v>
       </c>
       <c r="U130" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="131">
@@ -10421,7 +10487,7 @@
         <v>#N/A</v>
       </c>
       <c r="U131" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="132">
@@ -10486,7 +10552,7 @@
         <v>#N/A</v>
       </c>
       <c r="U132" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="133">
@@ -10551,7 +10617,7 @@
         <v>#N/A</v>
       </c>
       <c r="U133" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="134">
@@ -10616,7 +10682,7 @@
         <v>#N/A</v>
       </c>
       <c r="U134" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="135">
@@ -10681,7 +10747,7 @@
         <v>#N/A</v>
       </c>
       <c r="U135" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="136">
@@ -10746,7 +10812,7 @@
         <v>#N/A</v>
       </c>
       <c r="U136" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="137">
@@ -10811,7 +10877,7 @@
         <v>#N/A</v>
       </c>
       <c r="U137" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="138">
@@ -10876,7 +10942,7 @@
         <v>#N/A</v>
       </c>
       <c r="U138" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="139">
@@ -10941,7 +11007,7 @@
         <v>#N/A</v>
       </c>
       <c r="U139" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="140">
@@ -11006,7 +11072,7 @@
         <v>#N/A</v>
       </c>
       <c r="U140" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="141">
@@ -11071,7 +11137,7 @@
         <v>#N/A</v>
       </c>
       <c r="U141" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="142">
@@ -11136,7 +11202,7 @@
         <v>#N/A</v>
       </c>
       <c r="U142" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="143">
@@ -11201,7 +11267,7 @@
         <v>#N/A</v>
       </c>
       <c r="U143" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="144">
@@ -11266,7 +11332,7 @@
         <v>#N/A</v>
       </c>
       <c r="U144" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="145">
@@ -11331,7 +11397,7 @@
         <v>#N/A</v>
       </c>
       <c r="U145" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="146">
@@ -11396,7 +11462,7 @@
         <v>#N/A</v>
       </c>
       <c r="U146" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="147">
@@ -11461,7 +11527,7 @@
         <v>#N/A</v>
       </c>
       <c r="U147" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="148">
@@ -11526,7 +11592,7 @@
         <v>#N/A</v>
       </c>
       <c r="U148" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="149">
@@ -11591,7 +11657,7 @@
         <v>#N/A</v>
       </c>
       <c r="U149" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="150">
@@ -11656,7 +11722,7 @@
         <v>#N/A</v>
       </c>
       <c r="U150" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="151">
@@ -11721,7 +11787,7 @@
         <v>#N/A</v>
       </c>
       <c r="U151" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="152">
@@ -11786,7 +11852,7 @@
         <v>#N/A</v>
       </c>
       <c r="U152" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="153">
@@ -11851,7 +11917,7 @@
         <v>#N/A</v>
       </c>
       <c r="U153" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="154">
@@ -11916,7 +11982,7 @@
         <v>#N/A</v>
       </c>
       <c r="U154" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="155">
@@ -11981,7 +12047,7 @@
         <v>#N/A</v>
       </c>
       <c r="U155" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="156">
@@ -12046,7 +12112,7 @@
         <v>#N/A</v>
       </c>
       <c r="U156" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="157">
@@ -12111,7 +12177,7 @@
         <v>#N/A</v>
       </c>
       <c r="U157" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="158">
@@ -12176,7 +12242,7 @@
         <v>#N/A</v>
       </c>
       <c r="U158" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="159">
@@ -12241,7 +12307,7 @@
         <v>#N/A</v>
       </c>
       <c r="U159" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="160">
@@ -12306,7 +12372,7 @@
         <v>#N/A</v>
       </c>
       <c r="U160" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="161">
@@ -12371,7 +12437,7 @@
         <v>#N/A</v>
       </c>
       <c r="U161" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="162">
@@ -12436,7 +12502,7 @@
         <v>#N/A</v>
       </c>
       <c r="U162" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="163">
@@ -12501,7 +12567,7 @@
         <v>#N/A</v>
       </c>
       <c r="U163" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="164">
@@ -12566,7 +12632,7 @@
         <v>#N/A</v>
       </c>
       <c r="U164" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="165">
@@ -12631,7 +12697,7 @@
         <v>#N/A</v>
       </c>
       <c r="U165" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="166">
@@ -12696,7 +12762,7 @@
         <v>#N/A</v>
       </c>
       <c r="U166" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167">
@@ -12761,7 +12827,7 @@
         <v>#N/A</v>
       </c>
       <c r="U167" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="168">
@@ -12826,7 +12892,7 @@
         <v>#N/A</v>
       </c>
       <c r="U168" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
     </row>
     <row r="169">
@@ -12891,7 +12957,7 @@
         <v>#N/A</v>
       </c>
       <c r="U169" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="170">
@@ -12956,7 +13022,7 @@
         <v>#N/A</v>
       </c>
       <c r="U170" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="171">
@@ -13021,7 +13087,7 @@
         <v>#N/A</v>
       </c>
       <c r="U171" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="172">
@@ -13086,7 +13152,7 @@
         <v>#N/A</v>
       </c>
       <c r="U172" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173">
@@ -13151,7 +13217,7 @@
         <v>#N/A</v>
       </c>
       <c r="U173" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="174">
@@ -13216,7 +13282,7 @@
         <v>#N/A</v>
       </c>
       <c r="U174" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="175">
@@ -13281,7 +13347,7 @@
         <v>#N/A</v>
       </c>
       <c r="U175" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="176">
@@ -13346,7 +13412,7 @@
         <v>#N/A</v>
       </c>
       <c r="U176" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="177">
@@ -13411,7 +13477,7 @@
         <v>#N/A</v>
       </c>
       <c r="U177" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="178">
@@ -13476,7 +13542,7 @@
         <v>#N/A</v>
       </c>
       <c r="U178" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="179">
@@ -13541,7 +13607,7 @@
         <v>#N/A</v>
       </c>
       <c r="U179" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="180">
@@ -13606,7 +13672,7 @@
         <v>#N/A</v>
       </c>
       <c r="U180" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="181">
@@ -13671,7 +13737,7 @@
         <v>#N/A</v>
       </c>
       <c r="U181" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="182">
@@ -13736,7 +13802,7 @@
         <v>#N/A</v>
       </c>
       <c r="U182" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="183">
@@ -13801,7 +13867,7 @@
         <v>#N/A</v>
       </c>
       <c r="U183" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="184">
@@ -13866,7 +13932,7 @@
         <v>#N/A</v>
       </c>
       <c r="U184" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="185">
@@ -13931,7 +13997,7 @@
         <v>#N/A</v>
       </c>
       <c r="U185" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="186">
@@ -13996,7 +14062,7 @@
         <v>#N/A</v>
       </c>
       <c r="U186" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="187">
@@ -14061,7 +14127,7 @@
         <v>#N/A</v>
       </c>
       <c r="U187" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="188">
@@ -14126,7 +14192,7 @@
         <v>#N/A</v>
       </c>
       <c r="U188" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="189">
@@ -14191,7 +14257,7 @@
         <v>#N/A</v>
       </c>
       <c r="U189" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="190">
@@ -14256,7 +14322,7 @@
         <v>#N/A</v>
       </c>
       <c r="U190" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="191">
@@ -14321,7 +14387,7 @@
         <v>#N/A</v>
       </c>
       <c r="U191" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="192">
@@ -14386,7 +14452,7 @@
         <v>#N/A</v>
       </c>
       <c r="U192" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="193">
@@ -14451,7 +14517,7 @@
         <v>#N/A</v>
       </c>
       <c r="U193" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="194">
@@ -14516,7 +14582,7 @@
         <v>#N/A</v>
       </c>
       <c r="U194" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="195">
@@ -14581,7 +14647,7 @@
         <v>#N/A</v>
       </c>
       <c r="U195" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="196">
@@ -14646,7 +14712,7 @@
         <v>#N/A</v>
       </c>
       <c r="U196" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="197">
@@ -14711,7 +14777,7 @@
         <v>#N/A</v>
       </c>
       <c r="U197" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="198">
@@ -14776,7 +14842,7 @@
         <v>#N/A</v>
       </c>
       <c r="U198" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="199">
@@ -14841,7 +14907,7 @@
         <v>#N/A</v>
       </c>
       <c r="U199" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="200">
@@ -14906,7 +14972,7 @@
         <v>#N/A</v>
       </c>
       <c r="U200" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="201">
@@ -14971,7 +15037,7 @@
         <v>#N/A</v>
       </c>
       <c r="U201" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="202">
@@ -15036,7 +15102,7 @@
         <v>#N/A</v>
       </c>
       <c r="U202" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="203">
@@ -15101,7 +15167,7 @@
         <v>#N/A</v>
       </c>
       <c r="U203" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="204">
@@ -15166,7 +15232,7 @@
         <v>#N/A</v>
       </c>
       <c r="U204" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="205">
@@ -15231,7 +15297,7 @@
         <v>#N/A</v>
       </c>
       <c r="U205" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="206">
@@ -15296,7 +15362,7 @@
         <v>#N/A</v>
       </c>
       <c r="U206" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="207">
@@ -15361,7 +15427,7 @@
         <v>#N/A</v>
       </c>
       <c r="U207" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="208">
@@ -15426,7 +15492,7 @@
         <v>#N/A</v>
       </c>
       <c r="U208" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="209">
@@ -15491,7 +15557,7 @@
         <v>#N/A</v>
       </c>
       <c r="U209" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="210">
@@ -15556,7 +15622,7 @@
         <v>#N/A</v>
       </c>
       <c r="U210" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="211">
@@ -15621,7 +15687,7 @@
         <v>#N/A</v>
       </c>
       <c r="U211" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="212">
@@ -15686,7 +15752,7 @@
         <v>#N/A</v>
       </c>
       <c r="U212" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="213">
@@ -15751,7 +15817,7 @@
         <v>#N/A</v>
       </c>
       <c r="U213" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="214">
@@ -15881,7 +15947,7 @@
         <v>#N/A</v>
       </c>
       <c r="U215" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="216">
@@ -15946,7 +16012,7 @@
         <v>#N/A</v>
       </c>
       <c r="U216" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="217">
@@ -16011,7 +16077,7 @@
         <v>#N/A</v>
       </c>
       <c r="U217" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="218">
@@ -16076,7 +16142,7 @@
         <v>#N/A</v>
       </c>
       <c r="U218" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="219">
@@ -16141,7 +16207,7 @@
         <v>#N/A</v>
       </c>
       <c r="U219" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="220">
@@ -16206,7 +16272,7 @@
         <v>#N/A</v>
       </c>
       <c r="U220" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="221">
@@ -16271,7 +16337,7 @@
         <v>#N/A</v>
       </c>
       <c r="U221" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="222">
@@ -16336,7 +16402,7 @@
         <v>#N/A</v>
       </c>
       <c r="U222" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="223">
@@ -16401,7 +16467,7 @@
         <v>#N/A</v>
       </c>
       <c r="U223" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="224">
@@ -16466,7 +16532,7 @@
         <v>#N/A</v>
       </c>
       <c r="U224" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="225">
@@ -16531,7 +16597,7 @@
         <v>#N/A</v>
       </c>
       <c r="U225" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="226">
@@ -16596,7 +16662,7 @@
         <v>#N/A</v>
       </c>
       <c r="U226" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="227">
@@ -16661,7 +16727,7 @@
         <v>#N/A</v>
       </c>
       <c r="U227" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="228">
@@ -16726,7 +16792,7 @@
         <v>#N/A</v>
       </c>
       <c r="U228" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="229">
@@ -16791,7 +16857,7 @@
         <v>#N/A</v>
       </c>
       <c r="U229" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="230">
@@ -16856,7 +16922,7 @@
         <v>#N/A</v>
       </c>
       <c r="U230" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="231">
@@ -16921,7 +16987,7 @@
         <v>#N/A</v>
       </c>
       <c r="U231" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="232">
@@ -16986,7 +17052,7 @@
         <v>#N/A</v>
       </c>
       <c r="U232" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="233">
@@ -17051,7 +17117,7 @@
         <v>#N/A</v>
       </c>
       <c r="U233" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="234">
@@ -17116,7 +17182,7 @@
         <v>#N/A</v>
       </c>
       <c r="U234" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="235">
@@ -17181,7 +17247,7 @@
         <v>#N/A</v>
       </c>
       <c r="U235" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="236">
@@ -17246,7 +17312,7 @@
         <v>#N/A</v>
       </c>
       <c r="U236" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="237">
@@ -17311,7 +17377,7 @@
         <v>#N/A</v>
       </c>
       <c r="U237" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="238">
@@ -17376,7 +17442,7 @@
         <v>#N/A</v>
       </c>
       <c r="U238" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="239">
@@ -17441,7 +17507,7 @@
         <v>#N/A</v>
       </c>
       <c r="U239" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="240">
@@ -17506,7 +17572,7 @@
         <v>#N/A</v>
       </c>
       <c r="U240" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="241">
@@ -17571,7 +17637,7 @@
         <v>#N/A</v>
       </c>
       <c r="U241" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="242">
@@ -17636,7 +17702,7 @@
         <v>#N/A</v>
       </c>
       <c r="U242" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="243">
@@ -17701,7 +17767,7 @@
         <v>#N/A</v>
       </c>
       <c r="U243" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="244">
@@ -17766,7 +17832,7 @@
         <v>#N/A</v>
       </c>
       <c r="U244" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="245">
@@ -17831,7 +17897,7 @@
         <v>#N/A</v>
       </c>
       <c r="U245" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="246">
@@ -17896,7 +17962,7 @@
         <v>#N/A</v>
       </c>
       <c r="U246" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="247">
@@ -17961,7 +18027,7 @@
         <v>#N/A</v>
       </c>
       <c r="U247" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="248">
@@ -18026,7 +18092,7 @@
         <v>#N/A</v>
       </c>
       <c r="U248" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="249">
@@ -18091,7 +18157,7 @@
         <v>#N/A</v>
       </c>
       <c r="U249" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="250">
@@ -18156,7 +18222,7 @@
         <v>#N/A</v>
       </c>
       <c r="U250" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="251">
@@ -18221,7 +18287,7 @@
         <v>#N/A</v>
       </c>
       <c r="U251" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="252">
@@ -18286,7 +18352,7 @@
         <v>#N/A</v>
       </c>
       <c r="U252" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="253">
@@ -18351,7 +18417,7 @@
         <v>#N/A</v>
       </c>
       <c r="U253" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="254">
@@ -18416,7 +18482,7 @@
         <v>#N/A</v>
       </c>
       <c r="U254" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="255">
@@ -18481,7 +18547,7 @@
         <v>#N/A</v>
       </c>
       <c r="U255" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="256">
@@ -18546,7 +18612,7 @@
         <v>#N/A</v>
       </c>
       <c r="U256" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="257">
@@ -18611,7 +18677,7 @@
         <v>#N/A</v>
       </c>
       <c r="U257" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="258">
@@ -18676,7 +18742,7 @@
         <v>#N/A</v>
       </c>
       <c r="U258" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="259">
@@ -18741,7 +18807,7 @@
         <v>#N/A</v>
       </c>
       <c r="U259" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="260">
@@ -18806,7 +18872,7 @@
         <v>#N/A</v>
       </c>
       <c r="U260" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="261">
@@ -18871,7 +18937,7 @@
         <v>#N/A</v>
       </c>
       <c r="U261" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="262">
@@ -18936,7 +19002,7 @@
         <v>#N/A</v>
       </c>
       <c r="U262" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="263">
@@ -19001,7 +19067,7 @@
         <v>#N/A</v>
       </c>
       <c r="U263" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="264">
@@ -19042,7 +19108,7 @@
         <v>2.0</v>
       </c>
       <c r="M264" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N264" t="s">
         <v>343</v>
@@ -19066,7 +19132,7 @@
         <v>#N/A</v>
       </c>
       <c r="U264" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="265">
@@ -19131,7 +19197,7 @@
         <v>#N/A</v>
       </c>
       <c r="U265" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="266">
@@ -19196,7 +19262,7 @@
         <v>#N/A</v>
       </c>
       <c r="U266" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="267">
@@ -19261,7 +19327,7 @@
         <v>#N/A</v>
       </c>
       <c r="U267" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="268">
@@ -19326,7 +19392,7 @@
         <v>#N/A</v>
       </c>
       <c r="U268" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="269">
@@ -19391,7 +19457,7 @@
         <v>#N/A</v>
       </c>
       <c r="U269" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="270">
@@ -19456,7 +19522,7 @@
         <v>#N/A</v>
       </c>
       <c r="U270" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="271">
@@ -19521,7 +19587,7 @@
         <v>#N/A</v>
       </c>
       <c r="U271" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="272">
@@ -19586,7 +19652,7 @@
         <v>#N/A</v>
       </c>
       <c r="U272" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="273">
@@ -19627,7 +19693,7 @@
         <v>3.0</v>
       </c>
       <c r="M273" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="N273" t="s">
         <v>344</v>
@@ -19636,7 +19702,7 @@
         <v>5.0</v>
       </c>
       <c r="P273" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q273" t="n">
         <v>61021.0</v>
@@ -19651,7 +19717,7 @@
         <v>#N/A</v>
       </c>
       <c r="U273" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="274">
@@ -19716,7 +19782,7 @@
         <v>#N/A</v>
       </c>
       <c r="U274" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="275">
@@ -19781,7 +19847,7 @@
         <v>#N/A</v>
       </c>
       <c r="U275" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="276">
@@ -19846,7 +19912,7 @@
         <v>#N/A</v>
       </c>
       <c r="U276" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="277">
@@ -19911,7 +19977,7 @@
         <v>#N/A</v>
       </c>
       <c r="U277" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="278">
@@ -19976,7 +20042,7 @@
         <v>#N/A</v>
       </c>
       <c r="U278" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="279">
@@ -20041,7 +20107,7 @@
         <v>#N/A</v>
       </c>
       <c r="U279" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="280">
@@ -20106,7 +20172,7 @@
         <v>#N/A</v>
       </c>
       <c r="U280" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="281">
@@ -20171,7 +20237,7 @@
         <v>#N/A</v>
       </c>
       <c r="U281" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="282">
@@ -20236,7 +20302,7 @@
         <v>#N/A</v>
       </c>
       <c r="U282" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="283">
@@ -20301,7 +20367,7 @@
         <v>#N/A</v>
       </c>
       <c r="U283" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="284">
@@ -20366,7 +20432,7 @@
         <v>#N/A</v>
       </c>
       <c r="U284" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="285">
@@ -20431,7 +20497,7 @@
         <v>#N/A</v>
       </c>
       <c r="U285" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="286">
@@ -20496,7 +20562,7 @@
         <v>#N/A</v>
       </c>
       <c r="U286" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="287">
@@ -20561,7 +20627,7 @@
         <v>#N/A</v>
       </c>
       <c r="U287" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="288">
@@ -20626,7 +20692,7 @@
         <v>#N/A</v>
       </c>
       <c r="U288" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="289">
@@ -20691,7 +20757,7 @@
         <v>#N/A</v>
       </c>
       <c r="U289" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="290">
@@ -20728,35 +20794,35 @@
       <c r="K290" t="s">
         <v>354</v>
       </c>
-      <c r="L290" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M290" t="e">
-        <v>#N/A</v>
+      <c r="L290" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>2.5</v>
       </c>
       <c r="N290" t="s">
         <v>352</v>
       </c>
-      <c r="O290" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P290" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q290" t="e">
-        <v>#N/A</v>
+      <c r="O290" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P290" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>12615.0</v>
       </c>
       <c r="R290" t="s">
         <v>372</v>
       </c>
       <c r="S290" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="T290" t="e">
         <v>#N/A</v>
       </c>
       <c r="U290" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
     </row>
     <row r="291">
@@ -20793,35 +20859,35 @@
       <c r="K291" t="s">
         <v>340</v>
       </c>
-      <c r="L291" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M291" t="e">
-        <v>#N/A</v>
+      <c r="L291" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>1.5</v>
       </c>
       <c r="N291" t="s">
         <v>344</v>
       </c>
-      <c r="O291" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P291" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q291" t="e">
-        <v>#N/A</v>
+      <c r="O291" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P291" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>31034.0</v>
       </c>
       <c r="R291" t="s">
         <v>358</v>
       </c>
       <c r="S291" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="T291" t="e">
         <v>#N/A</v>
       </c>
       <c r="U291" t="s">
-        <v>559</v>
+        <v>620</v>
       </c>
     </row>
     <row r="292">
@@ -20858,35 +20924,35 @@
       <c r="K292" t="s">
         <v>348</v>
       </c>
-      <c r="L292" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M292" t="e">
-        <v>#N/A</v>
+      <c r="L292" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>1.7</v>
       </c>
       <c r="N292" t="s">
         <v>353</v>
       </c>
-      <c r="O292" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P292" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q292" t="e">
-        <v>#N/A</v>
+      <c r="O292" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P292" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>9502.0</v>
       </c>
       <c r="R292" t="s">
         <v>366</v>
       </c>
       <c r="S292" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="T292" t="e">
         <v>#N/A</v>
       </c>
       <c r="U292" t="s">
-        <v>560</v>
+        <v>621</v>
       </c>
     </row>
     <row r="293">
@@ -20923,35 +20989,35 @@
       <c r="K293" t="s">
         <v>338</v>
       </c>
-      <c r="L293" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M293" t="e">
-        <v>#N/A</v>
+      <c r="L293" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>1.8</v>
       </c>
       <c r="N293" t="s">
         <v>345</v>
       </c>
-      <c r="O293" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P293" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q293" t="e">
-        <v>#N/A</v>
+      <c r="O293" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P293" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>49900.0</v>
       </c>
       <c r="R293" t="s">
         <v>356</v>
       </c>
       <c r="S293" t="s">
-        <v>336</v>
+        <v>395</v>
       </c>
       <c r="T293" t="e">
         <v>#N/A</v>
       </c>
       <c r="U293" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
     </row>
     <row r="294">
@@ -20988,35 +21054,35 @@
       <c r="K294" t="s">
         <v>347</v>
       </c>
-      <c r="L294" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M294" t="e">
-        <v>#N/A</v>
+      <c r="L294" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>1.0</v>
       </c>
       <c r="N294" t="s">
         <v>351</v>
       </c>
-      <c r="O294" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P294" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q294" t="e">
-        <v>#N/A</v>
+      <c r="O294" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P294" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>27312.0</v>
       </c>
       <c r="R294" t="s">
         <v>365</v>
       </c>
       <c r="S294" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="T294" t="e">
         <v>#N/A</v>
       </c>
       <c r="U294" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
     </row>
     <row r="295">
@@ -21053,35 +21119,35 @@
       <c r="K295" t="s">
         <v>343</v>
       </c>
-      <c r="L295" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M295" t="e">
-        <v>#N/A</v>
+      <c r="L295" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>1.6</v>
       </c>
       <c r="N295" t="s">
         <v>339</v>
       </c>
-      <c r="O295" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P295" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q295" t="e">
-        <v>#N/A</v>
+      <c r="O295" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P295" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>61939.0</v>
       </c>
       <c r="R295" t="s">
         <v>361</v>
       </c>
       <c r="S295" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="T295" t="e">
         <v>#N/A</v>
       </c>
       <c r="U295" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
     </row>
     <row r="296">
@@ -21118,35 +21184,35 @@
       <c r="K296" t="s">
         <v>342</v>
       </c>
-      <c r="L296" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M296" t="e">
-        <v>#N/A</v>
+      <c r="L296" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>3.5</v>
       </c>
       <c r="N296" t="s">
         <v>346</v>
       </c>
-      <c r="O296" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P296" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q296" t="e">
-        <v>#N/A</v>
+      <c r="O296" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P296" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>22615.0</v>
       </c>
       <c r="R296" t="s">
         <v>360</v>
       </c>
       <c r="S296" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="T296" t="e">
         <v>#N/A</v>
       </c>
       <c r="U296" t="s">
-        <v>552</v>
+        <v>625</v>
       </c>
     </row>
     <row r="297">
@@ -21183,35 +21249,35 @@
       <c r="K297" t="s">
         <v>350</v>
       </c>
-      <c r="L297" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M297" t="e">
-        <v>#N/A</v>
+      <c r="L297" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>2.3</v>
       </c>
       <c r="N297" t="s">
         <v>341</v>
       </c>
-      <c r="O297" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P297" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q297" t="e">
-        <v>#N/A</v>
+      <c r="O297" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P297" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>19919.0</v>
       </c>
       <c r="R297" t="s">
         <v>368</v>
       </c>
       <c r="S297" t="s">
-        <v>336</v>
+        <v>400</v>
       </c>
       <c r="T297" t="e">
         <v>#N/A</v>
       </c>
       <c r="U297" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
     </row>
     <row r="298">
@@ -21248,35 +21314,35 @@
       <c r="K298" t="s">
         <v>349</v>
       </c>
-      <c r="L298" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M298" t="e">
-        <v>#N/A</v>
+      <c r="L298" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>2.0</v>
       </c>
       <c r="N298" t="s">
         <v>355</v>
       </c>
-      <c r="O298" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P298" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q298" t="e">
-        <v>#N/A</v>
+      <c r="O298" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P298" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>51500.0</v>
       </c>
       <c r="R298" t="s">
         <v>367</v>
       </c>
       <c r="S298" t="s">
-        <v>336</v>
+        <v>401</v>
       </c>
       <c r="T298" t="e">
         <v>#N/A</v>
       </c>
       <c r="U298" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
     </row>
     <row r="299">
@@ -21313,35 +21379,35 @@
       <c r="K299" t="s">
         <v>339</v>
       </c>
-      <c r="L299" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M299" t="e">
-        <v>#N/A</v>
+      <c r="L299" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>2.2</v>
       </c>
       <c r="N299" t="s">
         <v>350</v>
       </c>
-      <c r="O299" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P299" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q299" t="e">
-        <v>#N/A</v>
+      <c r="O299" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P299" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>45457.0</v>
       </c>
       <c r="R299" t="s">
         <v>357</v>
       </c>
       <c r="S299" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="T299" t="e">
         <v>#N/A</v>
       </c>
       <c r="U299" t="s">
-        <v>569</v>
+        <v>628</v>
       </c>
     </row>
     <row r="300">
@@ -21378,35 +21444,35 @@
       <c r="K300" t="s">
         <v>344</v>
       </c>
-      <c r="L300" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M300" t="e">
-        <v>#N/A</v>
+      <c r="L300" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>2.3</v>
       </c>
       <c r="N300" t="s">
         <v>338</v>
       </c>
-      <c r="O300" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P300" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q300" t="e">
-        <v>#N/A</v>
+      <c r="O300" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P300" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>17810.0</v>
       </c>
       <c r="R300" t="s">
         <v>362</v>
       </c>
       <c r="S300" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="T300" t="e">
         <v>#N/A</v>
       </c>
       <c r="U300" t="s">
-        <v>568</v>
+        <v>629</v>
       </c>
     </row>
     <row r="301">
@@ -21443,35 +21509,35 @@
       <c r="K301" t="s">
         <v>341</v>
       </c>
-      <c r="L301" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M301" t="e">
-        <v>#N/A</v>
+      <c r="L301" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0.8</v>
       </c>
       <c r="N301" t="s">
         <v>343</v>
       </c>
-      <c r="O301" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P301" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q301" t="e">
-        <v>#N/A</v>
+      <c r="O301" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>49000.0</v>
       </c>
       <c r="R301" t="s">
         <v>359</v>
       </c>
       <c r="S301" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
       <c r="T301" t="e">
         <v>#N/A</v>
       </c>
       <c r="U301" t="s">
-        <v>567</v>
+        <v>630</v>
       </c>
     </row>
     <row r="302">
@@ -21508,35 +21574,35 @@
       <c r="K302" t="s">
         <v>352</v>
       </c>
-      <c r="L302" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M302" t="e">
-        <v>#N/A</v>
+      <c r="L302" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0.9</v>
       </c>
       <c r="N302" t="s">
         <v>349</v>
       </c>
-      <c r="O302" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P302" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q302" t="e">
-        <v>#N/A</v>
+      <c r="O302" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P302" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>12310.0</v>
       </c>
       <c r="R302" t="s">
         <v>370</v>
       </c>
       <c r="S302" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="T302" t="e">
         <v>#N/A</v>
       </c>
       <c r="U302" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
     </row>
     <row r="303">
@@ -21573,35 +21639,35 @@
       <c r="K303" t="s">
         <v>351</v>
       </c>
-      <c r="L303" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M303" t="e">
-        <v>#N/A</v>
+      <c r="L303" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0.4</v>
       </c>
       <c r="N303" t="s">
         <v>348</v>
       </c>
-      <c r="O303" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P303" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q303" t="e">
-        <v>#N/A</v>
+      <c r="O303" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P303" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>11500.0</v>
       </c>
       <c r="R303" t="s">
         <v>369</v>
       </c>
       <c r="S303" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="T303" t="e">
         <v>#N/A</v>
       </c>
       <c r="U303" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
     </row>
     <row r="304">
@@ -21638,35 +21704,35 @@
       <c r="K304" t="s">
         <v>353</v>
       </c>
-      <c r="L304" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M304" t="e">
-        <v>#N/A</v>
+      <c r="L304" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>2.0</v>
       </c>
       <c r="N304" t="s">
         <v>354</v>
       </c>
-      <c r="O304" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P304" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q304" t="e">
-        <v>#N/A</v>
+      <c r="O304" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>42028.0</v>
       </c>
       <c r="R304" t="s">
         <v>371</v>
       </c>
       <c r="S304" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="T304" t="e">
         <v>#N/A</v>
       </c>
       <c r="U304" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
     </row>
     <row r="305">
@@ -21703,35 +21769,35 @@
       <c r="K305" t="s">
         <v>345</v>
       </c>
-      <c r="L305" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M305" t="e">
-        <v>#N/A</v>
+      <c r="L305" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0.9</v>
       </c>
       <c r="N305" t="s">
         <v>340</v>
       </c>
-      <c r="O305" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P305" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q305" t="e">
-        <v>#N/A</v>
+      <c r="O305" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P305" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>17400.0</v>
       </c>
       <c r="R305" t="s">
         <v>363</v>
       </c>
       <c r="S305" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="T305" t="e">
         <v>#N/A</v>
       </c>
       <c r="U305" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
     </row>
     <row r="306">
@@ -21768,35 +21834,35 @@
       <c r="K306" t="s">
         <v>346</v>
       </c>
-      <c r="L306" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M306" t="e">
-        <v>#N/A</v>
+      <c r="L306" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0.5</v>
       </c>
       <c r="N306" t="s">
         <v>347</v>
       </c>
-      <c r="O306" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P306" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q306" t="e">
-        <v>#N/A</v>
+      <c r="O306" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P306" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>16126.0</v>
       </c>
       <c r="R306" t="s">
         <v>364</v>
       </c>
       <c r="S306" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="T306" t="e">
         <v>#N/A</v>
       </c>
       <c r="U306" t="s">
-        <v>562</v>
+        <v>635</v>
       </c>
     </row>
     <row r="307">
@@ -21833,35 +21899,35 @@
       <c r="K307" t="s">
         <v>355</v>
       </c>
-      <c r="L307" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M307" t="e">
-        <v>#N/A</v>
+      <c r="L307" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>3.1</v>
       </c>
       <c r="N307" t="s">
         <v>342</v>
       </c>
-      <c r="O307" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P307" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q307" t="e">
-        <v>#N/A</v>
+      <c r="O307" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P307" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>57000.0</v>
       </c>
       <c r="R307" t="s">
         <v>373</v>
       </c>
       <c r="S307" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="T307" t="e">
         <v>#N/A</v>
       </c>
       <c r="U307" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/d2_match_results.xlsx
+++ b/d2_match_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="660">
   <si>
     <t>Competition_Name</t>
   </si>
@@ -1136,60 +1136,81 @@
     <t>Volksparkstadion (1953)</t>
   </si>
   <si>
+    <t>Robin Braun</t>
+  </si>
+  <si>
+    <t>Florian Lechner</t>
+  </si>
+  <si>
+    <t>Robert Kampka</t>
+  </si>
+  <si>
     <t>Florian Heft</t>
   </si>
   <si>
+    <t>Patrick Alt</t>
+  </si>
+  <si>
+    <t>Frank Willenborg</t>
+  </si>
+  <si>
     <t>Patrick Schwengers</t>
   </si>
   <si>
+    <t>Sören Storks</t>
+  </si>
+  <si>
+    <t>Tobias Stieler</t>
+  </si>
+  <si>
+    <t>Michael Bacher</t>
+  </si>
+  <si>
+    <t>Felix Prigan</t>
+  </si>
+  <si>
+    <t>Max Burda</t>
+  </si>
+  <si>
+    <t>Eric-Dominic Weisbach</t>
+  </si>
+  <si>
+    <t>Richard Hempel</t>
+  </si>
+  <si>
+    <t>Harm Osmers</t>
+  </si>
+  <si>
+    <t>Florian Badstübner</t>
+  </si>
+  <si>
+    <t>Wolfgang Haslberger</t>
+  </si>
+  <si>
+    <t>Tom Bauer</t>
+  </si>
+  <si>
+    <t>Daniel Siebert</t>
+  </si>
+  <si>
+    <t>Matthias Jöllenbeck</t>
+  </si>
+  <si>
     <t>Lukas Benen</t>
   </si>
   <si>
     <t>Felix Brych</t>
   </si>
   <si>
-    <t>Daniel Siebert</t>
-  </si>
-  <si>
     <t>Benjamin Brand</t>
   </si>
   <si>
     <t>Sven Jablonski</t>
   </si>
   <si>
-    <t>Tom Bauer</t>
-  </si>
-  <si>
-    <t>Florian Lechner</t>
-  </si>
-  <si>
-    <t>Max Burda</t>
-  </si>
-  <si>
     <t>Tobias Welz</t>
   </si>
   <si>
-    <t>Robert Kampka</t>
-  </si>
-  <si>
-    <t>Felix Prigan</t>
-  </si>
-  <si>
-    <t>Wolfgang Haslberger</t>
-  </si>
-  <si>
-    <t>Richard Hempel</t>
-  </si>
-  <si>
-    <t>Eric-Dominic Weisbach</t>
-  </si>
-  <si>
-    <t>Michael Bacher</t>
-  </si>
-  <si>
-    <t>Robin Braun</t>
-  </si>
-  <si>
     <t>Christian Dingert</t>
   </si>
   <si>
@@ -1199,15 +1220,6 @@
     <t>Florian Exner</t>
   </si>
   <si>
-    <t>Patrick Alt</t>
-  </si>
-  <si>
-    <t>Matthias Jöllenbeck</t>
-  </si>
-  <si>
-    <t>Florian Badstübner</t>
-  </si>
-  <si>
     <t>Nicolas Winter</t>
   </si>
   <si>
@@ -1220,9 +1232,6 @@
     <t>Martin Petersen</t>
   </si>
   <si>
-    <t>Frank Willenborg</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/matches/ee0af24d/Koln-Hamburger-SV-August-2-2024-2-Bundesliga</t>
   </si>
   <si>
@@ -1250,490 +1259,550 @@
     <t>https://fbref.com/en/matches/de3946b5/Greuther-Furth-Preussen-Munster-August-4-2024-2-Bundesliga</t>
   </si>
   <si>
+    <t>https://fbref.com/en/matches/5c13efed/Nurnberg-Jahn-Regensburg-October-25-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bc5bf578/Koln-Paderborn-07-October-25-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f028f49c/Elversberg-Hamburger-SV-October-26-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f1858d1c/Karlsruher-Hertha-BSC-October-26-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fa08b089/Schalke-04-Greuther-Furth-October-26-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8b3f3eff/Dusseldorf-Kaiserslautern-October-26-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0d8a6f7a/Eintracht-Braunschweig-Preussen-Munster-October-27-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6a4f6aca/Darmstadt-98-Ulm-October-27-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b089482e/Magdeburg-Hannover-96-October-27-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2014bb97/Preussen-Munster-Dusseldorf-November-1-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d597d3f1/Ulm-Schalke-04-November-1-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6f50055e/Greuther-Furth-Darmstadt-98-November-2-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b0ef73a4/Jahn-Regensburg-Elversberg-November-2-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e973f17f/Hannover-96-Karlsruher-November-2-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b5875bb2/Hertha-BSC-Koln-November-2-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/30cb9be1/Kaiserslautern-Magdeburg-November-3-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/45ee23a9/Paderborn-07-Eintracht-Braunschweig-November-3-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/67ad107e/Hamburger-SV-Nurnberg-November-3-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/850100a2/Eintracht-Braunschweig-Hamburger-SV-November-8-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/99c95367/Nurnberg-Kaiserslautern-November-8-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/291257b3/Magdeburg-vs-Ulm-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/2818f8bc/Darmstadt-98-vs-Hertha-BSC-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/12192a4c/Koln-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/b1278397/Paderborn-07-vs-Dusseldorf-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/60b5e41f/Elversberg-vs-Hannover-96-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/33ba9d7b/Preussen-Munster-vs-Karlsruher-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/5cb328f2/Schalke-04-vs-Jahn-Regensburg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/6f2c108c/Paderborn-07-vs-Nurnberg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/bbcef8c7/Koln-vs-Preussen-Munster-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33ba9d7b/12192a4c/Karlsruher-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/b1278397/Elversberg-vs-Dusseldorf-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/60b5e41f/Darmstadt-98-vs-Hannover-96-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/291257b3/2818f8bc/Ulm-vs-Hertha-BSC-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/26790c6a/Schalke-04-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/5cb328f2/Magdeburg-vs-Jahn-Regensburg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/73a27a73/Eintracht-Braunschweig-vs-Kaiserslautern-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/73a27a73/Schalke-04-vs-Kaiserslautern-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/2818f8bc/Magdeburg-vs-Hertha-BSC-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/5cb328f2/Eintracht-Braunschweig-vs-Jahn-Regensburg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/60b5e41f/Koln-vs-Hannover-96-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/d9f93f02/Elversberg-vs-Paderborn-07-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/6a6967fc/Preussen-Munster-vs-Darmstadt-98-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/291257b3/12192a4c/Ulm-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/6f2c108c/Dusseldorf-vs-Nurnberg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33ba9d7b/26790c6a/Karlsruher-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/c539e393/Paderborn-07-vs-Schalke-04-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/6f2c108c/Elversberg-vs-Nurnberg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/2818f8bc/12192a4c/Hertha-BSC-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/33ba9d7b/Kaiserslautern-vs-Karlsruher-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60b5e41f/291257b3/Hannover-96-vs-Ulm-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/bbcef8c7/Magdeburg-vs-Preussen-Munster-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/8107958d/Dusseldorf-vs-Eintracht-Braunschweig-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/5cb328f2/Koln-vs-Jahn-Regensburg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/26790c6a/Darmstadt-98-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5cb328f2/33ba9d7b/Jahn-Regensburg-vs-Karlsruher-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/2818f8bc/Preussen-Munster-vs-Hertha-BSC-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/b1278397/Schalke-04-vs-Dusseldorf-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/291257b3/26790c6a/Ulm-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/d9f93f02/Magdeburg-vs-Paderborn-07-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/6a6967fc/Kaiserslautern-vs-Darmstadt-98-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/8107958d/Elversberg-vs-Eintracht-Braunschweig-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60b5e41f/12192a4c/Hannover-96-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/6f2c108c/Koln-vs-Nurnberg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/b1278397/Magdeburg-vs-Dusseldorf-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/c539e393/Elversberg-vs-Schalke-04-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/291257b3/Preussen-Munster-vs-Ulm-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/33ba9d7b/Paderborn-07-vs-Karlsruher-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/26790c6a/12192a4c/Hamburger-SV-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/6f2c108c/Eintracht-Braunschweig-vs-Nurnberg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/5cb328f2/Darmstadt-98-vs-Jahn-Regensburg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60b5e41f/2818f8bc/Hannover-96-vs-Hertha-BSC-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/73a27a73/Koln-vs-Kaiserslautern-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60b5e41f/5cb328f2/Hannover-96-vs-Jahn-Regensburg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/6a6967fc/Dusseldorf-vs-Darmstadt-98-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/12192a4c/Preussen-Munster-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/8107958d/Schalke-04-vs-Eintracht-Braunschweig-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/291257b3/Kaiserslautern-vs-Ulm-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/26790c6a/Koln-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/2818f8bc/Paderborn-07-vs-Hertha-BSC-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/e18a73da/Elversberg-vs-Magdeburg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/33ba9d7b/Nurnberg-vs-Karlsruher-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/12192a4c/Kaiserslautern-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/8107958d/Magdeburg-vs-Eintracht-Braunschweig-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/bc357bf7/Elversberg-vs-Koln-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/6f2c108c/Schalke-04-vs-Nurnberg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/33ba9d7b/Dusseldorf-vs-Karlsruher-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/2818f8bc/26790c6a/Hertha-BSC-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5cb328f2/291257b3/Jahn-Regensburg-vs-Ulm-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/60b5e41f/Preussen-Munster-vs-Hannover-96-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/6a6967fc/Paderborn-07-vs-Darmstadt-98-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/35824adb/Kaiserslautern-Greuther-Furth-August-9-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/96c41d6a/Jahn-Regensburg-Ulm-August-9-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/09d9ae86/Nurnberg-Schalke-04-August-10-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/407f1ed1/Dusseldorf-Karlsruher-August-10-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/55ab23e5/Elversberg-Koln-August-10-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cd504bf2/Hamburger-SV-Hertha-BSC-August-10-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2761809f/Preussen-Munster-Hannover-96-August-11-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3f33ad34/Paderborn-07-Darmstadt-98-August-11-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/64953f7c/Eintracht-Braunschweig-Magdeburg-August-11-2024-2-Bundesliga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5cb328f2/2818f8bc/Jahn-Regensburg-vs-Hertha-BSC-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/8107958d/Koln-vs-Eintracht-Braunschweig-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/c539e393/Magdeburg-vs-Schalke-04-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60b5e41f/26790c6a/Hannover-96-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/6a6967fc/Nurnberg-vs-Darmstadt-98-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/33ba9d7b/Elversberg-vs-Karlsruher-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/12192a4c/Paderborn-07-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/291257b3/Dusseldorf-vs-Ulm-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/73a27a73/Preussen-Munster-vs-Kaiserslautern-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/2818f8bc/Kaiserslautern-vs-Hertha-BSC-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/60b5e41f/Dusseldorf-vs-Hannover-96-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5cb328f2/12192a4c/Jahn-Regensburg-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/6a6967fc/Elversberg-vs-Darmstadt-98-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/33ba9d7b/Eintracht-Braunschweig-vs-Karlsruher-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/bc357bf7/Schalke-04-vs-Koln-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/291257b3/Paderborn-07-vs-Ulm-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/26790c6a/Preussen-Munster-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/6f2c108c/Magdeburg-vs-Nurnberg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/291257b3/Nurnberg-vs-Ulm-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/5cb328f2/26790c6a/Jahn-Regensburg-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/bbcef8c7/Paderborn-07-vs-Preussen-Munster-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/60b5e41f/Kaiserslautern-vs-Hannover-96-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/2818f8bc/Dusseldorf-vs-Hertha-BSC-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/12192a4c/Elversberg-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/6a6967fc/Eintracht-Braunschweig-vs-Darmstadt-98-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/bc357bf7/Magdeburg-vs-Koln-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/33ba9d7b/Schalke-04-vs-Karlsruher-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/291257b3/Elversberg-vs-Ulm-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/26790c6a/Kaiserslautern-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/12192a4c/Eintracht-Braunschweig-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/33ba9d7b/Magdeburg-vs-Karlsruher-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/60b5e41f/Paderborn-07-vs-Hannover-96-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/2818f8bc/Nurnberg-vs-Hertha-BSC-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/b1278397/Koln-vs-Dusseldorf-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/5cb328f2/Preussen-Munster-vs-Jahn-Regensburg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/6a6967fc/Schalke-04-vs-Darmstadt-98-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/5cb328f2/Kaiserslautern-vs-Jahn-Regensburg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/60b5e41f/Nurnberg-vs-Hannover-96-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/33ba9d7b/Koln-vs-Karlsruher-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/291257b3/Eintracht-Braunschweig-vs-Ulm-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/6a6967fc/Magdeburg-vs-Darmstadt-98-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/2818f8bc/Elversberg-vs-Hertha-BSC-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/bbcef8c7/Schalke-04-vs-Preussen-Munster-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/26790c6a/Paderborn-07-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/12192a4c/Dusseldorf-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/12192a4c/Magdeburg-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/291257b3/Koln-vs-Ulm-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/5cb328f2/Paderborn-07-vs-Jahn-Regensburg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/6f2c108c/Preussen-Munster-vs-Nurnberg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/2818f8bc/Schalke-04-vs-Hertha-BSC-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/60b5e41f/Eintracht-Braunschweig-vs-Hannover-96-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/26790c6a/Dusseldorf-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/33ba9d7b/Darmstadt-98-vs-Karlsruher-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/73a27a73/Elversberg-vs-Kaiserslautern-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/5cb328f2/Dusseldorf-vs-Jahn-Regensburg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/12192a4c/Nurnberg-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/33ba9d7b/291257b3/Karlsruher-vs-Ulm-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/bbcef8c7/Elversberg-vs-Preussen-Munster-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/26790c6a/Magdeburg-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/73a27a73/Paderborn-07-vs-Kaiserslautern-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/60b5e41f/Schalke-04-vs-Hannover-96-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/6a6967fc/Koln-vs-Darmstadt-98-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/2818f8bc/Eintracht-Braunschweig-vs-Hertha-BSC-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/26790c6a/Elversberg-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/bc357bf7/Paderborn-07-vs-Koln-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/60b5e41f/Magdeburg-vs-Hannover-96-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/291257b3/Darmstadt-98-vs-Ulm-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/12192a4c/Schalke-04-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/8107958d/Preussen-Munster-vs-Eintracht-Braunschweig-History</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/5cb328f2/Nurnberg-vs-Jahn-Regensburg-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/bc357bf7/Paderborn-07-vs-Koln-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/26790c6a/Elversberg-vs-Hamburger-SV-History</t>
+    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/73a27a73/Dusseldorf-vs-Kaiserslautern-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/33ba9d7b/2818f8bc/Karlsruher-vs-Hertha-BSC-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/12192a4c/Schalke-04-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/73a27a73/Dusseldorf-vs-Kaiserslautern-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/8107958d/Preussen-Munster-vs-Eintracht-Braunschweig-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/291257b3/Darmstadt-98-vs-Ulm-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/60b5e41f/Magdeburg-vs-Hannover-96-History</t>
+    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/73a27a73/Magdeburg-vs-Kaiserslautern-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/12192a4c/Darmstadt-98-vs-Greuther-Furth-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/60b5e41f/33ba9d7b/Hannover-96-vs-Karlsruher-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/5cb328f2/Elversberg-vs-Jahn-Regensburg-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/8107958d/Paderborn-07-vs-Eintracht-Braunschweig-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/291257b3/Schalke-04-vs-Ulm-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/26790c6a/Nurnberg-vs-Hamburger-SV-History</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/2818f8bc/Koln-vs-Hertha-BSC-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/b1278397/Preussen-Munster-vs-Dusseldorf-History</t>
   </si>
   <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/291257b3/Schalke-04-vs-Ulm-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/12192a4c/Darmstadt-98-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/5cb328f2/Elversberg-vs-Jahn-Regensburg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60b5e41f/33ba9d7b/Hannover-96-vs-Karlsruher-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/2818f8bc/Koln-vs-Hertha-BSC-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/73a27a73/Magdeburg-vs-Kaiserslautern-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/8107958d/Paderborn-07-vs-Eintracht-Braunschweig-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/26790c6a/Nurnberg-vs-Hamburger-SV-History</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/stathead/matchup/teams/8107958d/26790c6a/Eintracht-Braunschweig-vs-Hamburger-SV-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/6f2c108c/Kaiserslautern-vs-Nurnberg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/291257b3/Magdeburg-vs-Ulm-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/2818f8bc/Darmstadt-98-vs-Hertha-BSC-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/12192a4c/Koln-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/b1278397/Paderborn-07-vs-Dusseldorf-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/60b5e41f/Elversberg-vs-Hannover-96-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/33ba9d7b/Preussen-Munster-vs-Karlsruher-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/5cb328f2/Schalke-04-vs-Jahn-Regensburg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/6f2c108c/Paderborn-07-vs-Nurnberg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/bbcef8c7/Koln-vs-Preussen-Munster-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33ba9d7b/12192a4c/Karlsruher-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/b1278397/Elversberg-vs-Dusseldorf-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/60b5e41f/Darmstadt-98-vs-Hannover-96-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/291257b3/2818f8bc/Ulm-vs-Hertha-BSC-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/26790c6a/Schalke-04-vs-Hamburger-SV-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/5cb328f2/Magdeburg-vs-Jahn-Regensburg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/73a27a73/Eintracht-Braunschweig-vs-Kaiserslautern-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/73a27a73/Schalke-04-vs-Kaiserslautern-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/2818f8bc/Magdeburg-vs-Hertha-BSC-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/5cb328f2/Eintracht-Braunschweig-vs-Jahn-Regensburg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/60b5e41f/Koln-vs-Hannover-96-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/d9f93f02/Elversberg-vs-Paderborn-07-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/6a6967fc/Preussen-Munster-vs-Darmstadt-98-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/291257b3/12192a4c/Ulm-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/6f2c108c/Dusseldorf-vs-Nurnberg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33ba9d7b/26790c6a/Karlsruher-vs-Hamburger-SV-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/2818f8bc/12192a4c/Hertha-BSC-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/8107958d/Dusseldorf-vs-Eintracht-Braunschweig-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/33ba9d7b/Kaiserslautern-vs-Karlsruher-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/5cb328f2/Koln-vs-Jahn-Regensburg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60b5e41f/291257b3/Hannover-96-vs-Ulm-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/c539e393/Paderborn-07-vs-Schalke-04-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/bbcef8c7/Magdeburg-vs-Preussen-Munster-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/6f2c108c/Elversberg-vs-Nurnberg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/26790c6a/Darmstadt-98-vs-Hamburger-SV-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5cb328f2/33ba9d7b/Jahn-Regensburg-vs-Karlsruher-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/8107958d/Elversberg-vs-Eintracht-Braunschweig-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/b1278397/Schalke-04-vs-Dusseldorf-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/291257b3/26790c6a/Ulm-vs-Hamburger-SV-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/2818f8bc/Preussen-Munster-vs-Hertha-BSC-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/d9f93f02/Magdeburg-vs-Paderborn-07-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/6a6967fc/Kaiserslautern-vs-Darmstadt-98-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60b5e41f/12192a4c/Hannover-96-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/6f2c108c/Koln-vs-Nurnberg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/5cb328f2/Darmstadt-98-vs-Jahn-Regensburg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/291257b3/Preussen-Munster-vs-Ulm-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/33ba9d7b/Paderborn-07-vs-Karlsruher-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60b5e41f/2818f8bc/Hannover-96-vs-Hertha-BSC-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/26790c6a/12192a4c/Hamburger-SV-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/6f2c108c/Eintracht-Braunschweig-vs-Nurnberg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/73a27a73/Koln-vs-Kaiserslautern-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/b1278397/Magdeburg-vs-Dusseldorf-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/c539e393/Elversberg-vs-Schalke-04-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/12192a4c/Preussen-Munster-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/2818f8bc/Paderborn-07-vs-Hertha-BSC-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/e18a73da/Elversberg-vs-Magdeburg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/33ba9d7b/Nurnberg-vs-Karlsruher-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60b5e41f/5cb328f2/Hannover-96-vs-Jahn-Regensburg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/8107958d/Schalke-04-vs-Eintracht-Braunschweig-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/6a6967fc/Dusseldorf-vs-Darmstadt-98-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/291257b3/Kaiserslautern-vs-Ulm-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/26790c6a/Koln-vs-Hamburger-SV-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/bc357bf7/Elversberg-vs-Koln-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/6f2c108c/Schalke-04-vs-Nurnberg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/33ba9d7b/Dusseldorf-vs-Karlsruher-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5cb328f2/291257b3/Jahn-Regensburg-vs-Ulm-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/60b5e41f/Preussen-Munster-vs-Hannover-96-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/2818f8bc/26790c6a/Hertha-BSC-vs-Hamburger-SV-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/12192a4c/Kaiserslautern-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/6a6967fc/Paderborn-07-vs-Darmstadt-98-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/8107958d/Magdeburg-vs-Eintracht-Braunschweig-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/35824adb/Kaiserslautern-Greuther-Furth-August-9-2024-2-Bundesliga</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/96c41d6a/Jahn-Regensburg-Ulm-August-9-2024-2-Bundesliga</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/09d9ae86/Nurnberg-Schalke-04-August-10-2024-2-Bundesliga</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/407f1ed1/Dusseldorf-Karlsruher-August-10-2024-2-Bundesliga</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/55ab23e5/Elversberg-Koln-August-10-2024-2-Bundesliga</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/cd504bf2/Hamburger-SV-Hertha-BSC-August-10-2024-2-Bundesliga</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/2761809f/Preussen-Munster-Hannover-96-August-11-2024-2-Bundesliga</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/3f33ad34/Paderborn-07-Darmstadt-98-August-11-2024-2-Bundesliga</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/matches/64953f7c/Eintracht-Braunschweig-Magdeburg-August-11-2024-2-Bundesliga</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5cb328f2/2818f8bc/Jahn-Regensburg-vs-Hertha-BSC-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/8107958d/Koln-vs-Eintracht-Braunschweig-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/c539e393/Magdeburg-vs-Schalke-04-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/60b5e41f/26790c6a/Hannover-96-vs-Hamburger-SV-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/6a6967fc/Nurnberg-vs-Darmstadt-98-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/33ba9d7b/Elversberg-vs-Karlsruher-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/12192a4c/Paderborn-07-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/291257b3/Dusseldorf-vs-Ulm-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/73a27a73/Preussen-Munster-vs-Kaiserslautern-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/2818f8bc/Kaiserslautern-vs-Hertha-BSC-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/60b5e41f/Dusseldorf-vs-Hannover-96-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5cb328f2/12192a4c/Jahn-Regensburg-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/6a6967fc/Elversberg-vs-Darmstadt-98-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/33ba9d7b/Eintracht-Braunschweig-vs-Karlsruher-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/bc357bf7/Schalke-04-vs-Koln-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/291257b3/Paderborn-07-vs-Ulm-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/26790c6a/Preussen-Munster-vs-Hamburger-SV-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/6f2c108c/Magdeburg-vs-Nurnberg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/291257b3/Nurnberg-vs-Ulm-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/5cb328f2/26790c6a/Jahn-Regensburg-vs-Hamburger-SV-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/bbcef8c7/Paderborn-07-vs-Preussen-Munster-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/60b5e41f/Kaiserslautern-vs-Hannover-96-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/2818f8bc/Dusseldorf-vs-Hertha-BSC-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/12192a4c/Elversberg-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/6a6967fc/Eintracht-Braunschweig-vs-Darmstadt-98-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/bc357bf7/Magdeburg-vs-Koln-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/33ba9d7b/Schalke-04-vs-Karlsruher-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/291257b3/Elversberg-vs-Ulm-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/26790c6a/Kaiserslautern-vs-Hamburger-SV-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/12192a4c/Eintracht-Braunschweig-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/33ba9d7b/Magdeburg-vs-Karlsruher-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/60b5e41f/Paderborn-07-vs-Hannover-96-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/2818f8bc/Nurnberg-vs-Hertha-BSC-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/b1278397/Koln-vs-Dusseldorf-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/5cb328f2/Preussen-Munster-vs-Jahn-Regensburg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/6a6967fc/Schalke-04-vs-Darmstadt-98-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/73a27a73/5cb328f2/Kaiserslautern-vs-Jahn-Regensburg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/60b5e41f/Nurnberg-vs-Hannover-96-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/33ba9d7b/Koln-vs-Karlsruher-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/291257b3/Eintracht-Braunschweig-vs-Ulm-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/6a6967fc/Magdeburg-vs-Darmstadt-98-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/2818f8bc/Elversberg-vs-Hertha-BSC-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/bbcef8c7/Schalke-04-vs-Preussen-Munster-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/26790c6a/Paderborn-07-vs-Hamburger-SV-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/12192a4c/Dusseldorf-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/12192a4c/Magdeburg-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/291257b3/Koln-vs-Ulm-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/5cb328f2/Paderborn-07-vs-Jahn-Regensburg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bbcef8c7/6f2c108c/Preussen-Munster-vs-Nurnberg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/2818f8bc/Schalke-04-vs-Hertha-BSC-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/60b5e41f/Eintracht-Braunschweig-vs-Hannover-96-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/26790c6a/Dusseldorf-vs-Hamburger-SV-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6a6967fc/33ba9d7b/Darmstadt-98-vs-Karlsruher-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/73a27a73/Elversberg-vs-Kaiserslautern-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/b1278397/5cb328f2/Dusseldorf-vs-Jahn-Regensburg-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/6f2c108c/12192a4c/Nurnberg-vs-Greuther-Furth-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/33ba9d7b/291257b3/Karlsruher-vs-Ulm-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/fe686760/bbcef8c7/Elversberg-vs-Preussen-Munster-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/e18a73da/26790c6a/Magdeburg-vs-Hamburger-SV-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/d9f93f02/73a27a73/Paderborn-07-vs-Kaiserslautern-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/c539e393/60b5e41f/Schalke-04-vs-Hannover-96-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/bc357bf7/6a6967fc/Koln-vs-Darmstadt-98-History</t>
-  </si>
-  <si>
-    <t>https://fbref.com/en/stathead/matchup/teams/8107958d/2818f8bc/Eintracht-Braunschweig-vs-Hertha-BSC-History</t>
   </si>
   <si>
     <t>https://fbref.com/en/matches/2e6bf2ff/Karlsruher-Elversberg-August-23-2024-2-Bundesliga</t>
@@ -2102,7 +2171,7 @@
         <v>#N/A</v>
       </c>
       <c r="U2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3">
@@ -2167,7 +2236,7 @@
         <v>#N/A</v>
       </c>
       <c r="U3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4">
@@ -2232,7 +2301,7 @@
         <v>#N/A</v>
       </c>
       <c r="U4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5">
@@ -2297,7 +2366,7 @@
         <v>#N/A</v>
       </c>
       <c r="U5" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6">
@@ -2362,7 +2431,7 @@
         <v>#N/A</v>
       </c>
       <c r="U6" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7">
@@ -2427,7 +2496,7 @@
         <v>#N/A</v>
       </c>
       <c r="U7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8">
@@ -2492,7 +2561,7 @@
         <v>#N/A</v>
       </c>
       <c r="U8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9">
@@ -2557,7 +2626,7 @@
         <v>#N/A</v>
       </c>
       <c r="U9" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10">
@@ -2622,7 +2691,7 @@
         <v>#N/A</v>
       </c>
       <c r="U10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11">
@@ -2659,35 +2728,35 @@
       <c r="K11" t="s">
         <v>347</v>
       </c>
-      <c r="L11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M11" t="e">
-        <v>#N/A</v>
+      <c r="L11" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.0</v>
       </c>
       <c r="N11" t="s">
         <v>352</v>
       </c>
-      <c r="O11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q11" t="e">
-        <v>#N/A</v>
+      <c r="O11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>36152.0</v>
       </c>
       <c r="R11" t="s">
         <v>365</v>
       </c>
       <c r="S11" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="T11" t="e">
         <v>#N/A</v>
       </c>
       <c r="U11" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12">
@@ -2724,35 +2793,35 @@
       <c r="K12" t="s">
         <v>338</v>
       </c>
-      <c r="L12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M12" t="e">
-        <v>#N/A</v>
+      <c r="L12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9</v>
       </c>
       <c r="N12" t="s">
         <v>354</v>
       </c>
-      <c r="O12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q12" t="e">
-        <v>#N/A</v>
+      <c r="O12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>50000.0</v>
       </c>
       <c r="R12" t="s">
         <v>356</v>
       </c>
       <c r="S12" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="T12" t="e">
         <v>#N/A</v>
       </c>
       <c r="U12" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13">
@@ -2789,35 +2858,35 @@
       <c r="K13" t="s">
         <v>348</v>
       </c>
-      <c r="L13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M13" t="e">
-        <v>#N/A</v>
+      <c r="L13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.1</v>
       </c>
       <c r="N13" t="s">
         <v>355</v>
       </c>
-      <c r="O13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q13" t="e">
-        <v>#N/A</v>
+      <c r="O13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>9502.0</v>
       </c>
       <c r="R13" t="s">
         <v>366</v>
       </c>
       <c r="S13" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="T13" t="e">
         <v>#N/A</v>
       </c>
       <c r="U13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14">
@@ -2854,35 +2923,35 @@
       <c r="K14" t="s">
         <v>340</v>
       </c>
-      <c r="L14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M14" t="e">
-        <v>#N/A</v>
+      <c r="L14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.9</v>
       </c>
       <c r="N14" t="s">
         <v>339</v>
       </c>
-      <c r="O14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q14" t="e">
-        <v>#N/A</v>
+      <c r="O14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>31845.0</v>
       </c>
       <c r="R14" t="s">
         <v>358</v>
       </c>
       <c r="S14" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="T14" t="e">
         <v>#N/A</v>
       </c>
       <c r="U14" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15">
@@ -2919,35 +2988,35 @@
       <c r="K15" t="s">
         <v>343</v>
       </c>
-      <c r="L15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M15" t="e">
-        <v>#N/A</v>
+      <c r="L15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.2</v>
       </c>
       <c r="N15" t="s">
         <v>346</v>
       </c>
-      <c r="O15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q15" t="e">
-        <v>#N/A</v>
+      <c r="O15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>60344.0</v>
       </c>
       <c r="R15" t="s">
         <v>361</v>
       </c>
       <c r="S15" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="T15" t="e">
         <v>#N/A</v>
       </c>
       <c r="U15" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16">
@@ -2984,35 +3053,35 @@
       <c r="K16" t="s">
         <v>349</v>
       </c>
-      <c r="L16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M16" t="e">
-        <v>#N/A</v>
+      <c r="L16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.0</v>
       </c>
       <c r="N16" t="s">
         <v>353</v>
       </c>
-      <c r="O16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q16" t="e">
-        <v>#N/A</v>
+      <c r="O16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>44557.0</v>
       </c>
       <c r="R16" t="s">
         <v>367</v>
       </c>
       <c r="S16" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="T16" t="e">
         <v>#N/A</v>
       </c>
       <c r="U16" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17">
@@ -3049,35 +3118,35 @@
       <c r="K17" t="s">
         <v>350</v>
       </c>
-      <c r="L17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M17" t="e">
-        <v>#N/A</v>
+      <c r="L17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5</v>
       </c>
       <c r="N17" t="s">
         <v>351</v>
       </c>
-      <c r="O17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q17" t="e">
-        <v>#N/A</v>
+      <c r="O17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>21809.0</v>
       </c>
       <c r="R17" t="s">
         <v>368</v>
       </c>
       <c r="S17" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="T17" t="e">
         <v>#N/A</v>
       </c>
       <c r="U17" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18">
@@ -3114,35 +3183,35 @@
       <c r="K18" t="s">
         <v>344</v>
       </c>
-      <c r="L18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M18" t="e">
-        <v>#N/A</v>
+      <c r="L18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.9</v>
       </c>
       <c r="N18" t="s">
         <v>345</v>
       </c>
-      <c r="O18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" t="e">
-        <v>#N/A</v>
+      <c r="O18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>17455.0</v>
       </c>
       <c r="R18" t="s">
         <v>362</v>
       </c>
       <c r="S18" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="T18" t="e">
         <v>#N/A</v>
       </c>
       <c r="U18" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19">
@@ -3179,35 +3248,35 @@
       <c r="K19" t="s">
         <v>342</v>
       </c>
-      <c r="L19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M19" t="e">
-        <v>#N/A</v>
+      <c r="L19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.3</v>
       </c>
       <c r="N19" t="s">
         <v>341</v>
       </c>
-      <c r="O19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q19" t="e">
-        <v>#N/A</v>
+      <c r="O19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>27065.0</v>
       </c>
       <c r="R19" t="s">
         <v>360</v>
       </c>
       <c r="S19" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="T19" t="e">
         <v>#N/A</v>
       </c>
       <c r="U19" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20">
@@ -3244,35 +3313,35 @@
       <c r="K20" t="s">
         <v>351</v>
       </c>
-      <c r="L20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M20" t="e">
-        <v>#N/A</v>
+      <c r="L20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.1</v>
       </c>
       <c r="N20" t="s">
         <v>349</v>
       </c>
-      <c r="O20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q20" t="e">
-        <v>#N/A</v>
+      <c r="O20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>12422.0</v>
       </c>
       <c r="R20" t="s">
         <v>369</v>
       </c>
       <c r="S20" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="T20" t="e">
         <v>#N/A</v>
       </c>
       <c r="U20" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21">
@@ -3309,35 +3378,35 @@
       <c r="K21" t="s">
         <v>345</v>
       </c>
-      <c r="L21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M21" t="e">
-        <v>#N/A</v>
+      <c r="L21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6</v>
       </c>
       <c r="N21" t="s">
         <v>343</v>
       </c>
-      <c r="O21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q21" t="e">
-        <v>#N/A</v>
+      <c r="O21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>17400.0</v>
       </c>
       <c r="R21" t="s">
         <v>363</v>
       </c>
       <c r="S21" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="T21" t="e">
         <v>#N/A</v>
       </c>
       <c r="U21" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22">
@@ -3374,35 +3443,35 @@
       <c r="K22" t="s">
         <v>346</v>
       </c>
-      <c r="L22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M22" t="e">
-        <v>#N/A</v>
+      <c r="L22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.1</v>
       </c>
       <c r="N22" t="s">
         <v>344</v>
       </c>
-      <c r="O22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q22" t="e">
-        <v>#N/A</v>
+      <c r="O22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>11161.0</v>
       </c>
       <c r="R22" t="s">
         <v>364</v>
       </c>
       <c r="S22" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="T22" t="e">
         <v>#N/A</v>
       </c>
       <c r="U22" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23">
@@ -3439,35 +3508,35 @@
       <c r="K23" t="s">
         <v>352</v>
       </c>
-      <c r="L23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M23" t="e">
-        <v>#N/A</v>
+      <c r="L23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8</v>
       </c>
       <c r="N23" t="s">
         <v>348</v>
       </c>
-      <c r="O23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q23" t="e">
-        <v>#N/A</v>
+      <c r="O23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9048.0</v>
       </c>
       <c r="R23" t="s">
         <v>370</v>
       </c>
       <c r="S23" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="T23" t="e">
         <v>#N/A</v>
       </c>
       <c r="U23" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24">
@@ -3504,35 +3573,35 @@
       <c r="K24" t="s">
         <v>341</v>
       </c>
-      <c r="L24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M24" t="e">
-        <v>#N/A</v>
+      <c r="L24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.2</v>
       </c>
       <c r="N24" t="s">
         <v>340</v>
       </c>
-      <c r="O24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q24" t="e">
-        <v>#N/A</v>
+      <c r="O24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>39500.0</v>
       </c>
       <c r="R24" t="s">
         <v>359</v>
       </c>
       <c r="S24" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="T24" t="e">
         <v>#N/A</v>
       </c>
       <c r="U24" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25">
@@ -3569,35 +3638,35 @@
       <c r="K25" t="s">
         <v>339</v>
       </c>
-      <c r="L25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M25" t="e">
-        <v>#N/A</v>
+      <c r="L25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5</v>
       </c>
       <c r="N25" t="s">
         <v>338</v>
       </c>
-      <c r="O25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q25" t="e">
-        <v>#N/A</v>
+      <c r="O25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>68763.0</v>
       </c>
       <c r="R25" t="s">
         <v>357</v>
       </c>
       <c r="S25" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="T25" t="e">
         <v>#N/A</v>
       </c>
       <c r="U25" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26">
@@ -3634,35 +3703,35 @@
       <c r="K26" t="s">
         <v>353</v>
       </c>
-      <c r="L26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M26" t="e">
-        <v>#N/A</v>
+      <c r="L26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.9</v>
       </c>
       <c r="N26" t="s">
         <v>342</v>
       </c>
-      <c r="O26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q26" t="e">
-        <v>#N/A</v>
+      <c r="O26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>45104.0</v>
       </c>
       <c r="R26" t="s">
         <v>371</v>
       </c>
       <c r="S26" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
       <c r="T26" t="e">
         <v>#N/A</v>
       </c>
       <c r="U26" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27">
@@ -3699,35 +3768,35 @@
       <c r="K27" t="s">
         <v>354</v>
       </c>
-      <c r="L27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M27" t="e">
-        <v>#N/A</v>
+      <c r="L27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.6</v>
       </c>
       <c r="N27" t="s">
         <v>350</v>
       </c>
-      <c r="O27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q27" t="e">
-        <v>#N/A</v>
+      <c r="O27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>13949.0</v>
       </c>
       <c r="R27" t="s">
         <v>372</v>
       </c>
       <c r="S27" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="T27" t="e">
         <v>#N/A</v>
       </c>
       <c r="U27" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28">
@@ -3764,35 +3833,35 @@
       <c r="K28" t="s">
         <v>355</v>
       </c>
-      <c r="L28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M28" t="e">
-        <v>#N/A</v>
+      <c r="L28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.0</v>
       </c>
       <c r="N28" t="s">
         <v>347</v>
       </c>
-      <c r="O28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q28" t="e">
-        <v>#N/A</v>
+      <c r="O28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>57000.0</v>
       </c>
       <c r="R28" t="s">
         <v>373</v>
       </c>
       <c r="S28" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="T28" t="e">
         <v>#N/A</v>
       </c>
       <c r="U28" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29">
@@ -3829,35 +3898,35 @@
       <c r="K29" t="s">
         <v>350</v>
       </c>
-      <c r="L29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M29" t="e">
-        <v>#N/A</v>
+      <c r="L29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.3</v>
       </c>
       <c r="N29" t="s">
         <v>355</v>
       </c>
-      <c r="O29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q29" t="e">
-        <v>#N/A</v>
+      <c r="O29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>22418.0</v>
       </c>
       <c r="R29" t="s">
         <v>368</v>
       </c>
       <c r="S29" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="T29" t="e">
         <v>#N/A</v>
       </c>
       <c r="U29" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30">
@@ -3894,35 +3963,35 @@
       <c r="K30" t="s">
         <v>347</v>
       </c>
-      <c r="L30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M30" t="e">
-        <v>#N/A</v>
+      <c r="L30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.5</v>
       </c>
       <c r="N30" t="s">
         <v>353</v>
       </c>
-      <c r="O30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q30" t="e">
-        <v>#N/A</v>
+      <c r="O30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>37731.0</v>
       </c>
       <c r="R30" t="s">
         <v>365</v>
       </c>
       <c r="S30" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="T30" t="e">
         <v>#N/A</v>
       </c>
       <c r="U30" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31">
@@ -3987,7 +4056,7 @@
         <v>#N/A</v>
       </c>
       <c r="U31" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32">
@@ -4052,7 +4121,7 @@
         <v>#N/A</v>
       </c>
       <c r="U32" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="33">
@@ -4117,7 +4186,7 @@
         <v>#N/A</v>
       </c>
       <c r="U33" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34">
@@ -4182,7 +4251,7 @@
         <v>#N/A</v>
       </c>
       <c r="U34" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35">
@@ -4247,7 +4316,7 @@
         <v>#N/A</v>
       </c>
       <c r="U35" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36">
@@ -4312,7 +4381,7 @@
         <v>#N/A</v>
       </c>
       <c r="U36" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37">
@@ -4377,7 +4446,7 @@
         <v>#N/A</v>
       </c>
       <c r="U37" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38">
@@ -4442,7 +4511,7 @@
         <v>#N/A</v>
       </c>
       <c r="U38" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39">
@@ -4507,7 +4576,7 @@
         <v>#N/A</v>
       </c>
       <c r="U39" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40">
@@ -4572,7 +4641,7 @@
         <v>#N/A</v>
       </c>
       <c r="U40" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41">
@@ -4637,7 +4706,7 @@
         <v>#N/A</v>
       </c>
       <c r="U41" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42">
@@ -4702,7 +4771,7 @@
         <v>#N/A</v>
       </c>
       <c r="U42" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43">
@@ -4767,7 +4836,7 @@
         <v>#N/A</v>
       </c>
       <c r="U43" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44">
@@ -4832,7 +4901,7 @@
         <v>#N/A</v>
       </c>
       <c r="U44" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45">
@@ -4897,7 +4966,7 @@
         <v>#N/A</v>
       </c>
       <c r="U45" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46">
@@ -4962,7 +5031,7 @@
         <v>#N/A</v>
       </c>
       <c r="U46" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47">
@@ -5027,7 +5096,7 @@
         <v>#N/A</v>
       </c>
       <c r="U47" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48">
@@ -5092,7 +5161,7 @@
         <v>#N/A</v>
       </c>
       <c r="U48" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49">
@@ -5157,7 +5226,7 @@
         <v>#N/A</v>
       </c>
       <c r="U49" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50">
@@ -5222,7 +5291,7 @@
         <v>#N/A</v>
       </c>
       <c r="U50" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51">
@@ -5287,7 +5356,7 @@
         <v>#N/A</v>
       </c>
       <c r="U51" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52">
@@ -5352,7 +5421,7 @@
         <v>#N/A</v>
       </c>
       <c r="U52" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53">
@@ -5417,7 +5486,7 @@
         <v>#N/A</v>
       </c>
       <c r="U53" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54">
@@ -5482,7 +5551,7 @@
         <v>#N/A</v>
       </c>
       <c r="U54" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55">
@@ -5547,7 +5616,7 @@
         <v>#N/A</v>
       </c>
       <c r="U55" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56">
@@ -5573,16 +5642,16 @@
         <v>34</v>
       </c>
       <c r="H56" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I56" t="n" s="2">
-        <v>45633.0</v>
+        <v>45632.0</v>
       </c>
       <c r="J56" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K56" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="L56" t="e">
         <v>#N/A</v>
@@ -5591,7 +5660,7 @@
         <v>#N/A</v>
       </c>
       <c r="N56" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="O56" t="e">
         <v>#N/A</v>
@@ -5603,7 +5672,7 @@
         <v>#N/A</v>
       </c>
       <c r="R56" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="S56" t="s">
         <v>336</v>
@@ -5612,7 +5681,7 @@
         <v>#N/A</v>
       </c>
       <c r="U56" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57">
@@ -5638,16 +5707,16 @@
         <v>34</v>
       </c>
       <c r="H57" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I57" t="n" s="2">
-        <v>45633.0</v>
+        <v>45632.0</v>
       </c>
       <c r="J57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K57" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L57" t="e">
         <v>#N/A</v>
@@ -5656,7 +5725,7 @@
         <v>#N/A</v>
       </c>
       <c r="N57" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="O57" t="e">
         <v>#N/A</v>
@@ -5668,7 +5737,7 @@
         <v>#N/A</v>
       </c>
       <c r="R57" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S57" t="s">
         <v>336</v>
@@ -5677,7 +5746,7 @@
         <v>#N/A</v>
       </c>
       <c r="U57" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="58">
@@ -5709,10 +5778,10 @@
         <v>45633.0</v>
       </c>
       <c r="J58" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K58" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L58" t="e">
         <v>#N/A</v>
@@ -5721,7 +5790,7 @@
         <v>#N/A</v>
       </c>
       <c r="N58" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O58" t="e">
         <v>#N/A</v>
@@ -5733,7 +5802,7 @@
         <v>#N/A</v>
       </c>
       <c r="R58" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="S58" t="s">
         <v>336</v>
@@ -5742,7 +5811,7 @@
         <v>#N/A</v>
       </c>
       <c r="U58" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59">
@@ -5774,10 +5843,10 @@
         <v>45633.0</v>
       </c>
       <c r="J59" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K59" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L59" t="e">
         <v>#N/A</v>
@@ -5786,7 +5855,7 @@
         <v>#N/A</v>
       </c>
       <c r="N59" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O59" t="e">
         <v>#N/A</v>
@@ -5798,7 +5867,7 @@
         <v>#N/A</v>
       </c>
       <c r="R59" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="S59" t="s">
         <v>336</v>
@@ -5807,7 +5876,7 @@
         <v>#N/A</v>
       </c>
       <c r="U59" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60">
@@ -5839,7 +5908,7 @@
         <v>45633.0</v>
       </c>
       <c r="J60" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K60" t="s">
         <v>341</v>
@@ -5872,7 +5941,7 @@
         <v>#N/A</v>
       </c>
       <c r="U60" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61">
@@ -5904,10 +5973,10 @@
         <v>45633.0</v>
       </c>
       <c r="J61" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K61" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L61" t="e">
         <v>#N/A</v>
@@ -5916,7 +5985,7 @@
         <v>#N/A</v>
       </c>
       <c r="N61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O61" t="e">
         <v>#N/A</v>
@@ -5928,7 +5997,7 @@
         <v>#N/A</v>
       </c>
       <c r="R61" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="S61" t="s">
         <v>336</v>
@@ -5937,7 +6006,7 @@
         <v>#N/A</v>
       </c>
       <c r="U61" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62">
@@ -5963,16 +6032,16 @@
         <v>34</v>
       </c>
       <c r="H62" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I62" t="n" s="2">
-        <v>45633.0</v>
+        <v>45634.0</v>
       </c>
       <c r="J62" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K62" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L62" t="e">
         <v>#N/A</v>
@@ -5981,7 +6050,7 @@
         <v>#N/A</v>
       </c>
       <c r="N62" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="O62" t="e">
         <v>#N/A</v>
@@ -5993,7 +6062,7 @@
         <v>#N/A</v>
       </c>
       <c r="R62" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="S62" t="s">
         <v>336</v>
@@ -6002,7 +6071,7 @@
         <v>#N/A</v>
       </c>
       <c r="U62" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63">
@@ -6028,16 +6097,16 @@
         <v>34</v>
       </c>
       <c r="H63" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I63" t="n" s="2">
-        <v>45633.0</v>
+        <v>45634.0</v>
       </c>
       <c r="J63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K63" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L63" t="e">
         <v>#N/A</v>
@@ -6046,7 +6115,7 @@
         <v>#N/A</v>
       </c>
       <c r="N63" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="O63" t="e">
         <v>#N/A</v>
@@ -6058,7 +6127,7 @@
         <v>#N/A</v>
       </c>
       <c r="R63" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="S63" t="s">
         <v>336</v>
@@ -6067,7 +6136,7 @@
         <v>#N/A</v>
       </c>
       <c r="U63" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64">
@@ -6093,13 +6162,13 @@
         <v>34</v>
       </c>
       <c r="H64" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I64" t="n" s="2">
-        <v>45633.0</v>
+        <v>45634.0</v>
       </c>
       <c r="J64" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K64" t="s">
         <v>355</v>
@@ -6132,7 +6201,7 @@
         <v>#N/A</v>
       </c>
       <c r="U64" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65">
@@ -6158,13 +6227,13 @@
         <v>35</v>
       </c>
       <c r="H65" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I65" t="n" s="2">
-        <v>45640.0</v>
+        <v>45639.0</v>
       </c>
       <c r="J65" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K65" t="s">
         <v>340</v>
@@ -6197,7 +6266,7 @@
         <v>#N/A</v>
       </c>
       <c r="U65" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66">
@@ -6223,16 +6292,16 @@
         <v>35</v>
       </c>
       <c r="H66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I66" t="n" s="2">
-        <v>45640.0</v>
+        <v>45639.0</v>
       </c>
       <c r="J66" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K66" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="L66" t="e">
         <v>#N/A</v>
@@ -6241,7 +6310,7 @@
         <v>#N/A</v>
       </c>
       <c r="N66" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="O66" t="e">
         <v>#N/A</v>
@@ -6253,7 +6322,7 @@
         <v>#N/A</v>
       </c>
       <c r="R66" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="S66" t="s">
         <v>336</v>
@@ -6262,7 +6331,7 @@
         <v>#N/A</v>
       </c>
       <c r="U66" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67">
@@ -6294,7 +6363,7 @@
         <v>45640.0</v>
       </c>
       <c r="J67" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K67" t="s">
         <v>343</v>
@@ -6327,7 +6396,7 @@
         <v>#N/A</v>
       </c>
       <c r="U67" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68">
@@ -6359,7 +6428,7 @@
         <v>45640.0</v>
       </c>
       <c r="J68" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K68" t="s">
         <v>345</v>
@@ -6392,7 +6461,7 @@
         <v>#N/A</v>
       </c>
       <c r="U68" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69">
@@ -6424,10 +6493,10 @@
         <v>45640.0</v>
       </c>
       <c r="J69" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K69" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L69" t="e">
         <v>#N/A</v>
@@ -6436,7 +6505,7 @@
         <v>#N/A</v>
       </c>
       <c r="N69" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O69" t="e">
         <v>#N/A</v>
@@ -6448,7 +6517,7 @@
         <v>#N/A</v>
       </c>
       <c r="R69" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="S69" t="s">
         <v>336</v>
@@ -6457,7 +6526,7 @@
         <v>#N/A</v>
       </c>
       <c r="U69" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70">
@@ -6489,10 +6558,10 @@
         <v>45640.0</v>
       </c>
       <c r="J70" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K70" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L70" t="e">
         <v>#N/A</v>
@@ -6501,7 +6570,7 @@
         <v>#N/A</v>
       </c>
       <c r="N70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O70" t="e">
         <v>#N/A</v>
@@ -6513,7 +6582,7 @@
         <v>#N/A</v>
       </c>
       <c r="R70" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="S70" t="s">
         <v>336</v>
@@ -6522,7 +6591,7 @@
         <v>#N/A</v>
       </c>
       <c r="U70" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71">
@@ -6548,16 +6617,16 @@
         <v>35</v>
       </c>
       <c r="H71" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I71" t="n" s="2">
-        <v>45640.0</v>
+        <v>45641.0</v>
       </c>
       <c r="J71" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K71" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L71" t="e">
         <v>#N/A</v>
@@ -6566,7 +6635,7 @@
         <v>#N/A</v>
       </c>
       <c r="N71" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="O71" t="e">
         <v>#N/A</v>
@@ -6578,7 +6647,7 @@
         <v>#N/A</v>
       </c>
       <c r="R71" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="S71" t="s">
         <v>336</v>
@@ -6587,7 +6656,7 @@
         <v>#N/A</v>
       </c>
       <c r="U71" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72">
@@ -6613,13 +6682,13 @@
         <v>35</v>
       </c>
       <c r="H72" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I72" t="n" s="2">
-        <v>45640.0</v>
+        <v>45641.0</v>
       </c>
       <c r="J72" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K72" t="s">
         <v>346</v>
@@ -6652,7 +6721,7 @@
         <v>#N/A</v>
       </c>
       <c r="U72" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73">
@@ -6678,13 +6747,13 @@
         <v>35</v>
       </c>
       <c r="H73" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I73" t="n" s="2">
-        <v>45640.0</v>
+        <v>45641.0</v>
       </c>
       <c r="J73" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K73" t="s">
         <v>338</v>
@@ -6717,7 +6786,7 @@
         <v>#N/A</v>
       </c>
       <c r="U73" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74">
@@ -6743,16 +6812,16 @@
         <v>36</v>
       </c>
       <c r="H74" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I74" t="n" s="2">
-        <v>45647.0</v>
+        <v>45646.0</v>
       </c>
       <c r="J74" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K74" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L74" t="e">
         <v>#N/A</v>
@@ -6761,7 +6830,7 @@
         <v>#N/A</v>
       </c>
       <c r="N74" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="O74" t="e">
         <v>#N/A</v>
@@ -6773,7 +6842,7 @@
         <v>#N/A</v>
       </c>
       <c r="R74" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="S74" t="s">
         <v>336</v>
@@ -6782,7 +6851,7 @@
         <v>#N/A</v>
       </c>
       <c r="U74" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75">
@@ -6808,16 +6877,16 @@
         <v>36</v>
       </c>
       <c r="H75" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I75" t="n" s="2">
-        <v>45647.0</v>
+        <v>45646.0</v>
       </c>
       <c r="J75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K75" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L75" t="e">
         <v>#N/A</v>
@@ -6826,7 +6895,7 @@
         <v>#N/A</v>
       </c>
       <c r="N75" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O75" t="e">
         <v>#N/A</v>
@@ -6838,7 +6907,7 @@
         <v>#N/A</v>
       </c>
       <c r="R75" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="S75" t="s">
         <v>336</v>
@@ -6847,7 +6916,7 @@
         <v>#N/A</v>
       </c>
       <c r="U75" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76">
@@ -6879,10 +6948,10 @@
         <v>45647.0</v>
       </c>
       <c r="J76" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K76" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L76" t="e">
         <v>#N/A</v>
@@ -6891,7 +6960,7 @@
         <v>#N/A</v>
       </c>
       <c r="N76" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="O76" t="e">
         <v>#N/A</v>
@@ -6903,7 +6972,7 @@
         <v>#N/A</v>
       </c>
       <c r="R76" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="S76" t="s">
         <v>336</v>
@@ -6912,7 +6981,7 @@
         <v>#N/A</v>
       </c>
       <c r="U76" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77">
@@ -6944,10 +7013,10 @@
         <v>45647.0</v>
       </c>
       <c r="J77" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K77" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="L77" t="e">
         <v>#N/A</v>
@@ -6956,7 +7025,7 @@
         <v>#N/A</v>
       </c>
       <c r="N77" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O77" t="e">
         <v>#N/A</v>
@@ -6968,7 +7037,7 @@
         <v>#N/A</v>
       </c>
       <c r="R77" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="S77" t="s">
         <v>336</v>
@@ -6977,7 +7046,7 @@
         <v>#N/A</v>
       </c>
       <c r="U77" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78">
@@ -7009,7 +7078,7 @@
         <v>45647.0</v>
       </c>
       <c r="J78" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K78" t="s">
         <v>355</v>
@@ -7042,7 +7111,7 @@
         <v>#N/A</v>
       </c>
       <c r="U78" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79">
@@ -7074,7 +7143,7 @@
         <v>45647.0</v>
       </c>
       <c r="J79" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K79" t="s">
         <v>347</v>
@@ -7107,7 +7176,7 @@
         <v>#N/A</v>
       </c>
       <c r="U79" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="80">
@@ -7133,16 +7202,16 @@
         <v>36</v>
       </c>
       <c r="H80" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I80" t="n" s="2">
-        <v>45647.0</v>
+        <v>45648.0</v>
       </c>
       <c r="J80" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K80" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L80" t="e">
         <v>#N/A</v>
@@ -7151,7 +7220,7 @@
         <v>#N/A</v>
       </c>
       <c r="N80" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="O80" t="e">
         <v>#N/A</v>
@@ -7163,7 +7232,7 @@
         <v>#N/A</v>
       </c>
       <c r="R80" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S80" t="s">
         <v>336</v>
@@ -7172,7 +7241,7 @@
         <v>#N/A</v>
       </c>
       <c r="U80" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81">
@@ -7198,16 +7267,16 @@
         <v>36</v>
       </c>
       <c r="H81" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I81" t="n" s="2">
-        <v>45647.0</v>
+        <v>45648.0</v>
       </c>
       <c r="J81" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K81" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L81" t="e">
         <v>#N/A</v>
@@ -7216,7 +7285,7 @@
         <v>#N/A</v>
       </c>
       <c r="N81" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O81" t="e">
         <v>#N/A</v>
@@ -7228,7 +7297,7 @@
         <v>#N/A</v>
       </c>
       <c r="R81" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="S81" t="s">
         <v>336</v>
@@ -7237,7 +7306,7 @@
         <v>#N/A</v>
       </c>
       <c r="U81" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82">
@@ -7263,16 +7332,16 @@
         <v>36</v>
       </c>
       <c r="H82" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I82" t="n" s="2">
-        <v>45647.0</v>
+        <v>45648.0</v>
       </c>
       <c r="J82" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K82" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="L82" t="e">
         <v>#N/A</v>
@@ -7281,7 +7350,7 @@
         <v>#N/A</v>
       </c>
       <c r="N82" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="O82" t="e">
         <v>#N/A</v>
@@ -7293,7 +7362,7 @@
         <v>#N/A</v>
       </c>
       <c r="R82" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="S82" t="s">
         <v>336</v>
@@ -7302,7 +7371,7 @@
         <v>#N/A</v>
       </c>
       <c r="U82" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="83">
@@ -7328,16 +7397,16 @@
         <v>37</v>
       </c>
       <c r="H83" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I83" t="n" s="2">
-        <v>45675.0</v>
+        <v>45674.0</v>
       </c>
       <c r="J83" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K83" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L83" t="e">
         <v>#N/A</v>
@@ -7346,7 +7415,7 @@
         <v>#N/A</v>
       </c>
       <c r="N83" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="O83" t="e">
         <v>#N/A</v>
@@ -7358,7 +7427,7 @@
         <v>#N/A</v>
       </c>
       <c r="R83" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="S83" t="s">
         <v>336</v>
@@ -7367,7 +7436,7 @@
         <v>#N/A</v>
       </c>
       <c r="U83" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="84">
@@ -7393,16 +7462,16 @@
         <v>37</v>
       </c>
       <c r="H84" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I84" t="n" s="2">
-        <v>45675.0</v>
+        <v>45674.0</v>
       </c>
       <c r="J84" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K84" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L84" t="e">
         <v>#N/A</v>
@@ -7411,7 +7480,7 @@
         <v>#N/A</v>
       </c>
       <c r="N84" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="O84" t="e">
         <v>#N/A</v>
@@ -7423,7 +7492,7 @@
         <v>#N/A</v>
       </c>
       <c r="R84" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="S84" t="s">
         <v>336</v>
@@ -7432,7 +7501,7 @@
         <v>#N/A</v>
       </c>
       <c r="U84" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="85">
@@ -7464,10 +7533,10 @@
         <v>45675.0</v>
       </c>
       <c r="J85" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K85" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L85" t="e">
         <v>#N/A</v>
@@ -7476,7 +7545,7 @@
         <v>#N/A</v>
       </c>
       <c r="N85" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="O85" t="e">
         <v>#N/A</v>
@@ -7488,7 +7557,7 @@
         <v>#N/A</v>
       </c>
       <c r="R85" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="S85" t="s">
         <v>336</v>
@@ -7497,7 +7566,7 @@
         <v>#N/A</v>
       </c>
       <c r="U85" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86">
@@ -7529,10 +7598,10 @@
         <v>45675.0</v>
       </c>
       <c r="J86" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K86" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L86" t="e">
         <v>#N/A</v>
@@ -7541,7 +7610,7 @@
         <v>#N/A</v>
       </c>
       <c r="N86" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="O86" t="e">
         <v>#N/A</v>
@@ -7553,7 +7622,7 @@
         <v>#N/A</v>
       </c>
       <c r="R86" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="S86" t="s">
         <v>336</v>
@@ -7562,7 +7631,7 @@
         <v>#N/A</v>
       </c>
       <c r="U86" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87">
@@ -7594,10 +7663,10 @@
         <v>45675.0</v>
       </c>
       <c r="J87" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K87" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L87" t="e">
         <v>#N/A</v>
@@ -7606,7 +7675,7 @@
         <v>#N/A</v>
       </c>
       <c r="N87" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="O87" t="e">
         <v>#N/A</v>
@@ -7618,7 +7687,7 @@
         <v>#N/A</v>
       </c>
       <c r="R87" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="S87" t="s">
         <v>336</v>
@@ -7627,7 +7696,7 @@
         <v>#N/A</v>
       </c>
       <c r="U87" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88">
@@ -7659,10 +7728,10 @@
         <v>45675.0</v>
       </c>
       <c r="J88" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K88" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L88" t="e">
         <v>#N/A</v>
@@ -7671,7 +7740,7 @@
         <v>#N/A</v>
       </c>
       <c r="N88" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="O88" t="e">
         <v>#N/A</v>
@@ -7683,7 +7752,7 @@
         <v>#N/A</v>
       </c>
       <c r="R88" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="S88" t="s">
         <v>336</v>
@@ -7692,7 +7761,7 @@
         <v>#N/A</v>
       </c>
       <c r="U88" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89">
@@ -7718,16 +7787,16 @@
         <v>37</v>
       </c>
       <c r="H89" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I89" t="n" s="2">
-        <v>45675.0</v>
+        <v>45676.0</v>
       </c>
       <c r="J89" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K89" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L89" t="e">
         <v>#N/A</v>
@@ -7736,7 +7805,7 @@
         <v>#N/A</v>
       </c>
       <c r="N89" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O89" t="e">
         <v>#N/A</v>
@@ -7748,7 +7817,7 @@
         <v>#N/A</v>
       </c>
       <c r="R89" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="S89" t="s">
         <v>336</v>
@@ -7757,7 +7826,7 @@
         <v>#N/A</v>
       </c>
       <c r="U89" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90">
@@ -7783,16 +7852,16 @@
         <v>37</v>
       </c>
       <c r="H90" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I90" t="n" s="2">
-        <v>45675.0</v>
+        <v>45676.0</v>
       </c>
       <c r="J90" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K90" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L90" t="e">
         <v>#N/A</v>
@@ -7801,7 +7870,7 @@
         <v>#N/A</v>
       </c>
       <c r="N90" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O90" t="e">
         <v>#N/A</v>
@@ -7813,7 +7882,7 @@
         <v>#N/A</v>
       </c>
       <c r="R90" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="S90" t="s">
         <v>336</v>
@@ -7822,7 +7891,7 @@
         <v>#N/A</v>
       </c>
       <c r="U90" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="91">
@@ -7848,16 +7917,16 @@
         <v>37</v>
       </c>
       <c r="H91" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I91" t="n" s="2">
-        <v>45675.0</v>
+        <v>45676.0</v>
       </c>
       <c r="J91" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K91" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="L91" t="e">
         <v>#N/A</v>
@@ -7866,7 +7935,7 @@
         <v>#N/A</v>
       </c>
       <c r="N91" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O91" t="e">
         <v>#N/A</v>
@@ -7878,7 +7947,7 @@
         <v>#N/A</v>
       </c>
       <c r="R91" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="S91" t="s">
         <v>336</v>
@@ -7887,7 +7956,7 @@
         <v>#N/A</v>
       </c>
       <c r="U91" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="92">
@@ -7913,16 +7982,16 @@
         <v>38</v>
       </c>
       <c r="H92" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I92" t="n" s="2">
-        <v>45682.0</v>
+        <v>45681.0</v>
       </c>
       <c r="J92" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K92" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L92" t="e">
         <v>#N/A</v>
@@ -7931,7 +8000,7 @@
         <v>#N/A</v>
       </c>
       <c r="N92" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="O92" t="e">
         <v>#N/A</v>
@@ -7943,7 +8012,7 @@
         <v>#N/A</v>
       </c>
       <c r="R92" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="S92" t="s">
         <v>336</v>
@@ -7952,7 +8021,7 @@
         <v>#N/A</v>
       </c>
       <c r="U92" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93">
@@ -7978,16 +8047,16 @@
         <v>38</v>
       </c>
       <c r="H93" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I93" t="n" s="2">
-        <v>45682.0</v>
+        <v>45681.0</v>
       </c>
       <c r="J93" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K93" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L93" t="e">
         <v>#N/A</v>
@@ -7996,7 +8065,7 @@
         <v>#N/A</v>
       </c>
       <c r="N93" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O93" t="e">
         <v>#N/A</v>
@@ -8008,7 +8077,7 @@
         <v>#N/A</v>
       </c>
       <c r="R93" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S93" t="s">
         <v>336</v>
@@ -8017,7 +8086,7 @@
         <v>#N/A</v>
       </c>
       <c r="U93" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="94">
@@ -8049,10 +8118,10 @@
         <v>45682.0</v>
       </c>
       <c r="J94" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K94" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L94" t="e">
         <v>#N/A</v>
@@ -8061,7 +8130,7 @@
         <v>#N/A</v>
       </c>
       <c r="N94" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O94" t="e">
         <v>#N/A</v>
@@ -8073,7 +8142,7 @@
         <v>#N/A</v>
       </c>
       <c r="R94" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="S94" t="s">
         <v>336</v>
@@ -8082,7 +8151,7 @@
         <v>#N/A</v>
       </c>
       <c r="U94" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="95">
@@ -8114,10 +8183,10 @@
         <v>45682.0</v>
       </c>
       <c r="J95" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K95" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L95" t="e">
         <v>#N/A</v>
@@ -8126,7 +8195,7 @@
         <v>#N/A</v>
       </c>
       <c r="N95" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="O95" t="e">
         <v>#N/A</v>
@@ -8138,7 +8207,7 @@
         <v>#N/A</v>
       </c>
       <c r="R95" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="S95" t="s">
         <v>336</v>
@@ -8147,7 +8216,7 @@
         <v>#N/A</v>
       </c>
       <c r="U95" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="96">
@@ -8179,10 +8248,10 @@
         <v>45682.0</v>
       </c>
       <c r="J96" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K96" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L96" t="e">
         <v>#N/A</v>
@@ -8191,7 +8260,7 @@
         <v>#N/A</v>
       </c>
       <c r="N96" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O96" t="e">
         <v>#N/A</v>
@@ -8203,7 +8272,7 @@
         <v>#N/A</v>
       </c>
       <c r="R96" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S96" t="s">
         <v>336</v>
@@ -8212,7 +8281,7 @@
         <v>#N/A</v>
       </c>
       <c r="U96" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97">
@@ -8244,7 +8313,7 @@
         <v>45682.0</v>
       </c>
       <c r="J97" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K97" t="s">
         <v>339</v>
@@ -8277,7 +8346,7 @@
         <v>#N/A</v>
       </c>
       <c r="U97" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="98">
@@ -8303,16 +8372,16 @@
         <v>38</v>
       </c>
       <c r="H98" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I98" t="n" s="2">
-        <v>45682.0</v>
+        <v>45683.0</v>
       </c>
       <c r="J98" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L98" t="e">
         <v>#N/A</v>
@@ -8321,7 +8390,7 @@
         <v>#N/A</v>
       </c>
       <c r="N98" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O98" t="e">
         <v>#N/A</v>
@@ -8333,7 +8402,7 @@
         <v>#N/A</v>
       </c>
       <c r="R98" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S98" t="s">
         <v>336</v>
@@ -8342,7 +8411,7 @@
         <v>#N/A</v>
       </c>
       <c r="U98" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99">
@@ -8368,16 +8437,16 @@
         <v>38</v>
       </c>
       <c r="H99" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I99" t="n" s="2">
-        <v>45682.0</v>
+        <v>45683.0</v>
       </c>
       <c r="J99" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K99" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L99" t="e">
         <v>#N/A</v>
@@ -8386,7 +8455,7 @@
         <v>#N/A</v>
       </c>
       <c r="N99" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O99" t="e">
         <v>#N/A</v>
@@ -8398,7 +8467,7 @@
         <v>#N/A</v>
       </c>
       <c r="R99" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="S99" t="s">
         <v>336</v>
@@ -8407,7 +8476,7 @@
         <v>#N/A</v>
       </c>
       <c r="U99" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="100">
@@ -8433,16 +8502,16 @@
         <v>38</v>
       </c>
       <c r="H100" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I100" t="n" s="2">
-        <v>45682.0</v>
+        <v>45683.0</v>
       </c>
       <c r="J100" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K100" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L100" t="e">
         <v>#N/A</v>
@@ -8451,7 +8520,7 @@
         <v>#N/A</v>
       </c>
       <c r="N100" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="O100" t="e">
         <v>#N/A</v>
@@ -8463,7 +8532,7 @@
         <v>#N/A</v>
       </c>
       <c r="R100" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="S100" t="s">
         <v>336</v>
@@ -8472,7 +8541,7 @@
         <v>#N/A</v>
       </c>
       <c r="U100" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="101">
@@ -8537,7 +8606,7 @@
         <v>#N/A</v>
       </c>
       <c r="U101" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="102">
@@ -8602,7 +8671,7 @@
         <v>#N/A</v>
       </c>
       <c r="U102" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="103">
@@ -8667,7 +8736,7 @@
         <v>#N/A</v>
       </c>
       <c r="U103" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="104">
@@ -8732,7 +8801,7 @@
         <v>#N/A</v>
       </c>
       <c r="U104" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="105">
@@ -8797,7 +8866,7 @@
         <v>#N/A</v>
       </c>
       <c r="U105" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="106">
@@ -8862,7 +8931,7 @@
         <v>#N/A</v>
       </c>
       <c r="U106" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="107">
@@ -8927,7 +8996,7 @@
         <v>#N/A</v>
       </c>
       <c r="U107" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="108">
@@ -8992,7 +9061,7 @@
         <v>#N/A</v>
       </c>
       <c r="U108" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="109">
@@ -9057,7 +9126,7 @@
         <v>#N/A</v>
       </c>
       <c r="U109" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="110">
@@ -9122,7 +9191,7 @@
         <v>#N/A</v>
       </c>
       <c r="U110" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="111">
@@ -9187,7 +9256,7 @@
         <v>#N/A</v>
       </c>
       <c r="U111" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="112">
@@ -9252,7 +9321,7 @@
         <v>#N/A</v>
       </c>
       <c r="U112" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="113">
@@ -9317,7 +9386,7 @@
         <v>#N/A</v>
       </c>
       <c r="U113" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="114">
@@ -9382,7 +9451,7 @@
         <v>#N/A</v>
       </c>
       <c r="U114" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="115">
@@ -9447,7 +9516,7 @@
         <v>#N/A</v>
       </c>
       <c r="U115" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="116">
@@ -9512,7 +9581,7 @@
         <v>#N/A</v>
       </c>
       <c r="U116" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="117">
@@ -9577,7 +9646,7 @@
         <v>#N/A</v>
       </c>
       <c r="U117" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="118">
@@ -9642,7 +9711,7 @@
         <v>#N/A</v>
       </c>
       <c r="U118" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="119">
@@ -9707,7 +9776,7 @@
         <v>#N/A</v>
       </c>
       <c r="U119" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="120">
@@ -9772,7 +9841,7 @@
         <v>#N/A</v>
       </c>
       <c r="U120" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="121">
@@ -9837,7 +9906,7 @@
         <v>#N/A</v>
       </c>
       <c r="U121" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="122">
@@ -9902,7 +9971,7 @@
         <v>#N/A</v>
       </c>
       <c r="U122" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="123">
@@ -9967,7 +10036,7 @@
         <v>#N/A</v>
       </c>
       <c r="U123" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="124">
@@ -10032,7 +10101,7 @@
         <v>#N/A</v>
       </c>
       <c r="U124" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="125">
@@ -10097,7 +10166,7 @@
         <v>#N/A</v>
       </c>
       <c r="U125" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="126">
@@ -10162,7 +10231,7 @@
         <v>#N/A</v>
       </c>
       <c r="U126" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="127">
@@ -10227,7 +10296,7 @@
         <v>#N/A</v>
       </c>
       <c r="U127" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="128">
@@ -10292,7 +10361,7 @@
         <v>#N/A</v>
       </c>
       <c r="U128" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="129">
@@ -10357,7 +10426,7 @@
         <v>#N/A</v>
       </c>
       <c r="U129" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="130">
@@ -10422,7 +10491,7 @@
         <v>#N/A</v>
       </c>
       <c r="U130" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="131">
@@ -10487,7 +10556,7 @@
         <v>#N/A</v>
       </c>
       <c r="U131" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="132">
@@ -10552,7 +10621,7 @@
         <v>#N/A</v>
       </c>
       <c r="U132" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="133">
@@ -10617,7 +10686,7 @@
         <v>#N/A</v>
       </c>
       <c r="U133" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="134">
@@ -10682,7 +10751,7 @@
         <v>#N/A</v>
       </c>
       <c r="U134" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="135">
@@ -10747,7 +10816,7 @@
         <v>#N/A</v>
       </c>
       <c r="U135" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="136">
@@ -10812,7 +10881,7 @@
         <v>#N/A</v>
       </c>
       <c r="U136" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="137">
@@ -10877,7 +10946,7 @@
         <v>#N/A</v>
       </c>
       <c r="U137" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="138">
@@ -10942,7 +11011,7 @@
         <v>#N/A</v>
       </c>
       <c r="U138" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="139">
@@ -11007,7 +11076,7 @@
         <v>#N/A</v>
       </c>
       <c r="U139" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="140">
@@ -11072,7 +11141,7 @@
         <v>#N/A</v>
       </c>
       <c r="U140" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="141">
@@ -11137,7 +11206,7 @@
         <v>#N/A</v>
       </c>
       <c r="U141" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="142">
@@ -11202,7 +11271,7 @@
         <v>#N/A</v>
       </c>
       <c r="U142" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="143">
@@ -11267,7 +11336,7 @@
         <v>#N/A</v>
       </c>
       <c r="U143" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="144">
@@ -11332,7 +11401,7 @@
         <v>#N/A</v>
       </c>
       <c r="U144" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="145">
@@ -11397,7 +11466,7 @@
         <v>#N/A</v>
       </c>
       <c r="U145" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="146">
@@ -11462,7 +11531,7 @@
         <v>#N/A</v>
       </c>
       <c r="U146" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="147">
@@ -11527,7 +11596,7 @@
         <v>#N/A</v>
       </c>
       <c r="U147" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="148">
@@ -11592,7 +11661,7 @@
         <v>#N/A</v>
       </c>
       <c r="U148" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="149">
@@ -11657,7 +11726,7 @@
         <v>#N/A</v>
       </c>
       <c r="U149" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="150">
@@ -11722,7 +11791,7 @@
         <v>#N/A</v>
       </c>
       <c r="U150" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="151">
@@ -11787,7 +11856,7 @@
         <v>#N/A</v>
       </c>
       <c r="U151" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="152">
@@ -11852,7 +11921,7 @@
         <v>#N/A</v>
       </c>
       <c r="U152" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="153">
@@ -11917,7 +11986,7 @@
         <v>#N/A</v>
       </c>
       <c r="U153" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="154">
@@ -11982,7 +12051,7 @@
         <v>#N/A</v>
       </c>
       <c r="U154" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="155">
@@ -12047,7 +12116,7 @@
         <v>#N/A</v>
       </c>
       <c r="U155" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="156">
@@ -12112,7 +12181,7 @@
         <v>#N/A</v>
       </c>
       <c r="U156" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="157">
@@ -12177,7 +12246,7 @@
         <v>#N/A</v>
       </c>
       <c r="U157" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="158">
@@ -12242,7 +12311,7 @@
         <v>#N/A</v>
       </c>
       <c r="U158" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="159">
@@ -12307,7 +12376,7 @@
         <v>#N/A</v>
       </c>
       <c r="U159" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="160">
@@ -12372,7 +12441,7 @@
         <v>#N/A</v>
       </c>
       <c r="U160" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="161">
@@ -12437,7 +12506,7 @@
         <v>#N/A</v>
       </c>
       <c r="U161" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="162">
@@ -12502,7 +12571,7 @@
         <v>#N/A</v>
       </c>
       <c r="U162" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="163">
@@ -12567,7 +12636,7 @@
         <v>#N/A</v>
       </c>
       <c r="U163" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="164">
@@ -12632,7 +12701,7 @@
         <v>#N/A</v>
       </c>
       <c r="U164" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="165">
@@ -12697,7 +12766,7 @@
         <v>#N/A</v>
       </c>
       <c r="U165" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="166">
@@ -12762,7 +12831,7 @@
         <v>#N/A</v>
       </c>
       <c r="U166" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="167">
@@ -12827,7 +12896,7 @@
         <v>#N/A</v>
       </c>
       <c r="U167" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168">
@@ -12892,7 +12961,7 @@
         <v>#N/A</v>
       </c>
       <c r="U168" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="169">
@@ -12957,7 +13026,7 @@
         <v>#N/A</v>
       </c>
       <c r="U169" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170">
@@ -13022,7 +13091,7 @@
         <v>#N/A</v>
       </c>
       <c r="U170" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="171">
@@ -13087,7 +13156,7 @@
         <v>#N/A</v>
       </c>
       <c r="U171" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="172">
@@ -13152,7 +13221,7 @@
         <v>#N/A</v>
       </c>
       <c r="U172" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="173">
@@ -13217,7 +13286,7 @@
         <v>#N/A</v>
       </c>
       <c r="U173" t="s">
-        <v>414</v>
+        <v>577</v>
       </c>
     </row>
     <row r="174">
@@ -13282,7 +13351,7 @@
         <v>#N/A</v>
       </c>
       <c r="U174" t="s">
-        <v>413</v>
+        <v>578</v>
       </c>
     </row>
     <row r="175">
@@ -13347,7 +13416,7 @@
         <v>#N/A</v>
       </c>
       <c r="U175" t="s">
-        <v>420</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176">
@@ -13412,7 +13481,7 @@
         <v>#N/A</v>
       </c>
       <c r="U176" t="s">
-        <v>419</v>
+        <v>580</v>
       </c>
     </row>
     <row r="177">
@@ -13477,7 +13546,7 @@
         <v>#N/A</v>
       </c>
       <c r="U177" t="s">
-        <v>416</v>
+        <v>581</v>
       </c>
     </row>
     <row r="178">
@@ -13542,7 +13611,7 @@
         <v>#N/A</v>
       </c>
       <c r="U178" t="s">
-        <v>418</v>
+        <v>582</v>
       </c>
     </row>
     <row r="179">
@@ -13607,7 +13676,7 @@
         <v>#N/A</v>
       </c>
       <c r="U179" t="s">
-        <v>412</v>
+        <v>583</v>
       </c>
     </row>
     <row r="180">
@@ -13672,7 +13741,7 @@
         <v>#N/A</v>
       </c>
       <c r="U180" t="s">
-        <v>417</v>
+        <v>584</v>
       </c>
     </row>
     <row r="181">
@@ -13737,7 +13806,7 @@
         <v>#N/A</v>
       </c>
       <c r="U181" t="s">
-        <v>415</v>
+        <v>585</v>
       </c>
     </row>
     <row r="182">
@@ -13802,7 +13871,7 @@
         <v>#N/A</v>
       </c>
       <c r="U182" t="s">
-        <v>427</v>
+        <v>586</v>
       </c>
     </row>
     <row r="183">
@@ -13867,7 +13936,7 @@
         <v>#N/A</v>
       </c>
       <c r="U183" t="s">
-        <v>423</v>
+        <v>587</v>
       </c>
     </row>
     <row r="184">
@@ -13932,7 +14001,7 @@
         <v>#N/A</v>
       </c>
       <c r="U184" t="s">
-        <v>425</v>
+        <v>588</v>
       </c>
     </row>
     <row r="185">
@@ -13997,7 +14066,7 @@
         <v>#N/A</v>
       </c>
       <c r="U185" t="s">
-        <v>424</v>
+        <v>589</v>
       </c>
     </row>
     <row r="186">
@@ -14062,7 +14131,7 @@
         <v>#N/A</v>
       </c>
       <c r="U186" t="s">
-        <v>428</v>
+        <v>590</v>
       </c>
     </row>
     <row r="187">
@@ -14127,7 +14196,7 @@
         <v>#N/A</v>
       </c>
       <c r="U187" t="s">
-        <v>422</v>
+        <v>591</v>
       </c>
     </row>
     <row r="188">
@@ -14192,7 +14261,7 @@
         <v>#N/A</v>
       </c>
       <c r="U188" t="s">
-        <v>429</v>
+        <v>592</v>
       </c>
     </row>
     <row r="189">
@@ -14257,7 +14326,7 @@
         <v>#N/A</v>
       </c>
       <c r="U189" t="s">
-        <v>426</v>
+        <v>593</v>
       </c>
     </row>
     <row r="190">
@@ -14322,7 +14391,7 @@
         <v>#N/A</v>
       </c>
       <c r="U190" t="s">
-        <v>421</v>
+        <v>594</v>
       </c>
     </row>
     <row r="191">
@@ -14387,7 +14456,7 @@
         <v>#N/A</v>
       </c>
       <c r="U191" t="s">
-        <v>430</v>
+        <v>595</v>
       </c>
     </row>
     <row r="192">
@@ -14452,7 +14521,7 @@
         <v>#N/A</v>
       </c>
       <c r="U192" t="s">
-        <v>431</v>
+        <v>596</v>
       </c>
     </row>
     <row r="193">
@@ -14517,7 +14586,7 @@
         <v>#N/A</v>
       </c>
       <c r="U193" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="194">
@@ -14582,7 +14651,7 @@
         <v>#N/A</v>
       </c>
       <c r="U194" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="195">
@@ -14647,7 +14716,7 @@
         <v>#N/A</v>
       </c>
       <c r="U195" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="196">
@@ -14712,7 +14781,7 @@
         <v>#N/A</v>
       </c>
       <c r="U196" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="197">
@@ -14777,7 +14846,7 @@
         <v>#N/A</v>
       </c>
       <c r="U197" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="198">
@@ -14842,7 +14911,7 @@
         <v>#N/A</v>
       </c>
       <c r="U198" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="199">
@@ -14907,7 +14976,7 @@
         <v>#N/A</v>
       </c>
       <c r="U199" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="200">
@@ -14972,7 +15041,7 @@
         <v>#N/A</v>
       </c>
       <c r="U200" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
     </row>
     <row r="201">
@@ -15037,7 +15106,7 @@
         <v>#N/A</v>
       </c>
       <c r="U201" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
     </row>
     <row r="202">
@@ -15102,7 +15171,7 @@
         <v>#N/A</v>
       </c>
       <c r="U202" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
     </row>
     <row r="203">
@@ -15167,7 +15236,7 @@
         <v>#N/A</v>
       </c>
       <c r="U203" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
     </row>
     <row r="204">
@@ -15232,7 +15301,7 @@
         <v>#N/A</v>
       </c>
       <c r="U204" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
     </row>
     <row r="205">
@@ -15297,7 +15366,7 @@
         <v>#N/A</v>
       </c>
       <c r="U205" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
     </row>
     <row r="206">
@@ -15362,7 +15431,7 @@
         <v>#N/A</v>
       </c>
       <c r="U206" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
     </row>
     <row r="207">
@@ -15427,7 +15496,7 @@
         <v>#N/A</v>
       </c>
       <c r="U207" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
     </row>
     <row r="208">
@@ -15492,7 +15561,7 @@
         <v>#N/A</v>
       </c>
       <c r="U208" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
     </row>
     <row r="209">
@@ -15557,7 +15626,7 @@
         <v>#N/A</v>
       </c>
       <c r="U209" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210">
@@ -15622,7 +15691,7 @@
         <v>#N/A</v>
       </c>
       <c r="U210" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="211">
@@ -15687,7 +15756,7 @@
         <v>#N/A</v>
       </c>
       <c r="U211" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="212">
@@ -15752,7 +15821,7 @@
         <v>#N/A</v>
       </c>
       <c r="U212" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="213">
@@ -15817,7 +15886,7 @@
         <v>#N/A</v>
       </c>
       <c r="U213" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="214">
@@ -15882,7 +15951,7 @@
         <v>#N/A</v>
       </c>
       <c r="U214" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="215">
@@ -15947,7 +16016,7 @@
         <v>#N/A</v>
       </c>
       <c r="U215" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="216">
@@ -16012,7 +16081,7 @@
         <v>#N/A</v>
       </c>
       <c r="U216" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="217">
@@ -16077,7 +16146,7 @@
         <v>#N/A</v>
       </c>
       <c r="U217" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="218">
@@ -16142,7 +16211,7 @@
         <v>#N/A</v>
       </c>
       <c r="U218" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="219">
@@ -16207,7 +16276,7 @@
         <v>#N/A</v>
       </c>
       <c r="U219" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="220">
@@ -16272,7 +16341,7 @@
         <v>#N/A</v>
       </c>
       <c r="U220" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="221">
@@ -16337,7 +16406,7 @@
         <v>#N/A</v>
       </c>
       <c r="U221" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="222">
@@ -16402,7 +16471,7 @@
         <v>#N/A</v>
       </c>
       <c r="U222" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="223">
@@ -16467,7 +16536,7 @@
         <v>#N/A</v>
       </c>
       <c r="U223" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="224">
@@ -16532,7 +16601,7 @@
         <v>#N/A</v>
       </c>
       <c r="U224" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="225">
@@ -16597,7 +16666,7 @@
         <v>#N/A</v>
       </c>
       <c r="U225" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="226">
@@ -16662,7 +16731,7 @@
         <v>#N/A</v>
       </c>
       <c r="U226" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="227">
@@ -16727,7 +16796,7 @@
         <v>#N/A</v>
       </c>
       <c r="U227" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="228">
@@ -16792,7 +16861,7 @@
         <v>#N/A</v>
       </c>
       <c r="U228" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="229">
@@ -16857,7 +16926,7 @@
         <v>#N/A</v>
       </c>
       <c r="U229" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="230">
@@ -16922,7 +16991,7 @@
         <v>#N/A</v>
       </c>
       <c r="U230" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="231">
@@ -16987,7 +17056,7 @@
         <v>#N/A</v>
       </c>
       <c r="U231" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="232">
@@ -17052,7 +17121,7 @@
         <v>#N/A</v>
       </c>
       <c r="U232" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="233">
@@ -17117,7 +17186,7 @@
         <v>#N/A</v>
       </c>
       <c r="U233" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="234">
@@ -17182,7 +17251,7 @@
         <v>#N/A</v>
       </c>
       <c r="U234" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="235">
@@ -17247,7 +17316,7 @@
         <v>#N/A</v>
       </c>
       <c r="U235" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="236">
@@ -17312,7 +17381,7 @@
         <v>#N/A</v>
       </c>
       <c r="U236" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="237">
@@ -17377,7 +17446,7 @@
         <v>#N/A</v>
       </c>
       <c r="U237" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="238">
@@ -17442,7 +17511,7 @@
         <v>#N/A</v>
       </c>
       <c r="U238" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="239">
@@ -17507,7 +17576,7 @@
         <v>#N/A</v>
       </c>
       <c r="U239" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="240">
@@ -17572,7 +17641,7 @@
         <v>#N/A</v>
       </c>
       <c r="U240" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="241">
@@ -17637,7 +17706,7 @@
         <v>#N/A</v>
       </c>
       <c r="U241" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="242">
@@ -17767,7 +17836,7 @@
         <v>#N/A</v>
       </c>
       <c r="U243" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="244">
@@ -17832,7 +17901,7 @@
         <v>#N/A</v>
       </c>
       <c r="U244" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="245">
@@ -17897,7 +17966,7 @@
         <v>#N/A</v>
       </c>
       <c r="U245" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="246">
@@ -17962,7 +18031,7 @@
         <v>#N/A</v>
       </c>
       <c r="U246" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="247">
@@ -18027,7 +18096,7 @@
         <v>#N/A</v>
       </c>
       <c r="U247" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="248">
@@ -18092,7 +18161,7 @@
         <v>#N/A</v>
       </c>
       <c r="U248" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="249">
@@ -18157,7 +18226,7 @@
         <v>#N/A</v>
       </c>
       <c r="U249" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="250">
@@ -18222,7 +18291,7 @@
         <v>#N/A</v>
       </c>
       <c r="U250" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="251">
@@ -18287,7 +18356,7 @@
         <v>#N/A</v>
       </c>
       <c r="U251" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="252">
@@ -18352,7 +18421,7 @@
         <v>#N/A</v>
       </c>
       <c r="U252" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="253">
@@ -18417,7 +18486,7 @@
         <v>#N/A</v>
       </c>
       <c r="U253" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="254">
@@ -18476,13 +18545,13 @@
         <v>367</v>
       </c>
       <c r="S254" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="T254" t="e">
         <v>#N/A</v>
       </c>
       <c r="U254" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
     </row>
     <row r="255">
@@ -18541,13 +18610,13 @@
         <v>370</v>
       </c>
       <c r="S255" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="T255" t="e">
         <v>#N/A</v>
       </c>
       <c r="U255" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
     </row>
     <row r="256">
@@ -18606,13 +18675,13 @@
         <v>366</v>
       </c>
       <c r="S256" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="T256" t="e">
         <v>#N/A</v>
       </c>
       <c r="U256" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
     </row>
     <row r="257">
@@ -18671,13 +18740,13 @@
         <v>365</v>
       </c>
       <c r="S257" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="T257" t="e">
         <v>#N/A</v>
       </c>
       <c r="U257" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
     </row>
     <row r="258">
@@ -18736,13 +18805,13 @@
         <v>373</v>
       </c>
       <c r="S258" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="T258" t="e">
         <v>#N/A</v>
       </c>
       <c r="U258" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
     </row>
     <row r="259">
@@ -18801,13 +18870,13 @@
         <v>371</v>
       </c>
       <c r="S259" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="T259" t="e">
         <v>#N/A</v>
       </c>
       <c r="U259" t="s">
-        <v>588</v>
+        <v>611</v>
       </c>
     </row>
     <row r="260">
@@ -18866,13 +18935,13 @@
         <v>361</v>
       </c>
       <c r="S260" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="T260" t="e">
         <v>#N/A</v>
       </c>
       <c r="U260" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
     </row>
     <row r="261">
@@ -18931,13 +19000,13 @@
         <v>368</v>
       </c>
       <c r="S261" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="T261" t="e">
         <v>#N/A</v>
       </c>
       <c r="U261" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
     </row>
     <row r="262">
@@ -18996,13 +19065,13 @@
         <v>372</v>
       </c>
       <c r="S262" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="T262" t="e">
         <v>#N/A</v>
       </c>
       <c r="U262" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
     </row>
     <row r="263">
@@ -19061,13 +19130,13 @@
         <v>369</v>
       </c>
       <c r="S263" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T263" t="e">
         <v>#N/A</v>
       </c>
       <c r="U263" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
     </row>
     <row r="264">
@@ -19126,13 +19195,13 @@
         <v>358</v>
       </c>
       <c r="S264" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="T264" t="e">
         <v>#N/A</v>
       </c>
       <c r="U264" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
     </row>
     <row r="265">
@@ -19191,13 +19260,13 @@
         <v>359</v>
       </c>
       <c r="S265" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="T265" t="e">
         <v>#N/A</v>
       </c>
       <c r="U265" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
     </row>
     <row r="266">
@@ -19256,13 +19325,13 @@
         <v>362</v>
       </c>
       <c r="S266" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="T266" t="e">
         <v>#N/A</v>
       </c>
       <c r="U266" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
     </row>
     <row r="267">
@@ -19321,13 +19390,13 @@
         <v>363</v>
       </c>
       <c r="S267" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="T267" t="e">
         <v>#N/A</v>
       </c>
       <c r="U267" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
     </row>
     <row r="268">
@@ -19386,13 +19455,13 @@
         <v>356</v>
       </c>
       <c r="S268" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T268" t="e">
         <v>#N/A</v>
       </c>
       <c r="U268" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
     </row>
     <row r="269">
@@ -19451,13 +19520,13 @@
         <v>364</v>
       </c>
       <c r="S269" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="T269" t="e">
         <v>#N/A</v>
       </c>
       <c r="U269" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
     </row>
     <row r="270">
@@ -19516,13 +19585,13 @@
         <v>357</v>
       </c>
       <c r="S270" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="T270" t="e">
         <v>#N/A</v>
       </c>
       <c r="U270" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
     </row>
     <row r="271">
@@ -19581,13 +19650,13 @@
         <v>373</v>
       </c>
       <c r="S271" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="T271" t="e">
         <v>#N/A</v>
       </c>
       <c r="U271" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
     </row>
     <row r="272">
@@ -19646,13 +19715,13 @@
         <v>372</v>
       </c>
       <c r="S272" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="T272" t="e">
         <v>#N/A</v>
       </c>
       <c r="U272" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
     </row>
     <row r="273">
@@ -19711,13 +19780,13 @@
         <v>361</v>
       </c>
       <c r="S273" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="T273" t="e">
         <v>#N/A</v>
       </c>
       <c r="U273" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
     </row>
     <row r="274">
@@ -19776,13 +19845,13 @@
         <v>367</v>
       </c>
       <c r="S274" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="T274" t="e">
         <v>#N/A</v>
       </c>
       <c r="U274" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
     </row>
     <row r="275">
@@ -19841,13 +19910,13 @@
         <v>365</v>
       </c>
       <c r="S275" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="T275" t="e">
         <v>#N/A</v>
       </c>
       <c r="U275" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
     </row>
     <row r="276">
@@ -19906,13 +19975,13 @@
         <v>368</v>
       </c>
       <c r="S276" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="T276" t="e">
         <v>#N/A</v>
       </c>
       <c r="U276" t="s">
-        <v>605</v>
+        <v>628</v>
       </c>
     </row>
     <row r="277">
@@ -19971,13 +20040,13 @@
         <v>371</v>
       </c>
       <c r="S277" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="T277" t="e">
         <v>#N/A</v>
       </c>
       <c r="U277" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
     </row>
     <row r="278">
@@ -20036,13 +20105,13 @@
         <v>360</v>
       </c>
       <c r="S278" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="T278" t="e">
         <v>#N/A</v>
       </c>
       <c r="U278" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
     </row>
     <row r="279">
@@ -20101,13 +20170,13 @@
         <v>366</v>
       </c>
       <c r="S279" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="T279" t="e">
         <v>#N/A</v>
       </c>
       <c r="U279" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
     </row>
     <row r="280">
@@ -20166,13 +20235,13 @@
         <v>370</v>
       </c>
       <c r="S280" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="T280" t="e">
         <v>#N/A</v>
       </c>
       <c r="U280" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
     </row>
     <row r="281">
@@ -20231,13 +20300,13 @@
         <v>364</v>
       </c>
       <c r="S281" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="T281" t="e">
         <v>#N/A</v>
       </c>
       <c r="U281" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
     </row>
     <row r="282">
@@ -20296,13 +20365,13 @@
         <v>363</v>
       </c>
       <c r="S282" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T282" t="e">
         <v>#N/A</v>
       </c>
       <c r="U282" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
     </row>
     <row r="283">
@@ -20361,13 +20430,13 @@
         <v>373</v>
       </c>
       <c r="S283" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="T283" t="e">
         <v>#N/A</v>
       </c>
       <c r="U283" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
     </row>
     <row r="284">
@@ -20426,13 +20495,13 @@
         <v>370</v>
       </c>
       <c r="S284" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T284" t="e">
         <v>#N/A</v>
       </c>
       <c r="U284" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
     </row>
     <row r="285">
@@ -20491,13 +20560,13 @@
         <v>362</v>
       </c>
       <c r="S285" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="T285" t="e">
         <v>#N/A</v>
       </c>
       <c r="U285" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
     </row>
     <row r="286">
@@ -20556,13 +20625,13 @@
         <v>369</v>
       </c>
       <c r="S286" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="T286" t="e">
         <v>#N/A</v>
       </c>
       <c r="U286" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
     </row>
     <row r="287">
@@ -20621,13 +20690,13 @@
         <v>357</v>
       </c>
       <c r="S287" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="T287" t="e">
         <v>#N/A</v>
       </c>
       <c r="U287" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
     </row>
     <row r="288">
@@ -20686,13 +20755,13 @@
         <v>359</v>
       </c>
       <c r="S288" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="T288" t="e">
         <v>#N/A</v>
       </c>
       <c r="U288" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
     </row>
     <row r="289">
@@ -20751,13 +20820,13 @@
         <v>356</v>
       </c>
       <c r="S289" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="T289" t="e">
         <v>#N/A</v>
       </c>
       <c r="U289" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
     </row>
     <row r="290">
@@ -20816,13 +20885,13 @@
         <v>372</v>
       </c>
       <c r="S290" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="T290" t="e">
         <v>#N/A</v>
       </c>
       <c r="U290" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
     </row>
     <row r="291">
@@ -20881,13 +20950,13 @@
         <v>358</v>
       </c>
       <c r="S291" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="T291" t="e">
         <v>#N/A</v>
       </c>
       <c r="U291" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
     </row>
     <row r="292">
@@ -20946,13 +21015,13 @@
         <v>366</v>
       </c>
       <c r="S292" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="T292" t="e">
         <v>#N/A</v>
       </c>
       <c r="U292" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
     </row>
     <row r="293">
@@ -21011,13 +21080,13 @@
         <v>356</v>
       </c>
       <c r="S293" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="T293" t="e">
         <v>#N/A</v>
       </c>
       <c r="U293" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
     </row>
     <row r="294">
@@ -21076,13 +21145,13 @@
         <v>365</v>
       </c>
       <c r="S294" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="T294" t="e">
         <v>#N/A</v>
       </c>
       <c r="U294" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
     </row>
     <row r="295">
@@ -21141,13 +21210,13 @@
         <v>361</v>
       </c>
       <c r="S295" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="T295" t="e">
         <v>#N/A</v>
       </c>
       <c r="U295" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
     </row>
     <row r="296">
@@ -21206,13 +21275,13 @@
         <v>360</v>
       </c>
       <c r="S296" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="T296" t="e">
         <v>#N/A</v>
       </c>
       <c r="U296" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
     </row>
     <row r="297">
@@ -21271,13 +21340,13 @@
         <v>368</v>
       </c>
       <c r="S297" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="T297" t="e">
         <v>#N/A</v>
       </c>
       <c r="U297" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
     </row>
     <row r="298">
@@ -21336,13 +21405,13 @@
         <v>367</v>
       </c>
       <c r="S298" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="T298" t="e">
         <v>#N/A</v>
       </c>
       <c r="U298" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
     </row>
     <row r="299">
@@ -21401,13 +21470,13 @@
         <v>357</v>
       </c>
       <c r="S299" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="T299" t="e">
         <v>#N/A</v>
       </c>
       <c r="U299" t="s">
-        <v>628</v>
+        <v>651</v>
       </c>
     </row>
     <row r="300">
@@ -21466,13 +21535,13 @@
         <v>362</v>
       </c>
       <c r="S300" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="T300" t="e">
         <v>#N/A</v>
       </c>
       <c r="U300" t="s">
-        <v>629</v>
+        <v>652</v>
       </c>
     </row>
     <row r="301">
@@ -21531,13 +21600,13 @@
         <v>359</v>
       </c>
       <c r="S301" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="T301" t="e">
         <v>#N/A</v>
       </c>
       <c r="U301" t="s">
-        <v>630</v>
+        <v>653</v>
       </c>
     </row>
     <row r="302">
@@ -21596,13 +21665,13 @@
         <v>370</v>
       </c>
       <c r="S302" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="T302" t="e">
         <v>#N/A</v>
       </c>
       <c r="U302" t="s">
-        <v>631</v>
+        <v>654</v>
       </c>
     </row>
     <row r="303">
@@ -21661,13 +21730,13 @@
         <v>369</v>
       </c>
       <c r="S303" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="T303" t="e">
         <v>#N/A</v>
       </c>
       <c r="U303" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
     </row>
     <row r="304">
@@ -21726,13 +21795,13 @@
         <v>371</v>
       </c>
       <c r="S304" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T304" t="e">
         <v>#N/A</v>
       </c>
       <c r="U304" t="s">
-        <v>633</v>
+        <v>656</v>
       </c>
     </row>
     <row r="305">
@@ -21791,13 +21860,13 @@
         <v>363</v>
       </c>
       <c r="S305" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="T305" t="e">
         <v>#N/A</v>
       </c>
       <c r="U305" t="s">
-        <v>634</v>
+        <v>657</v>
       </c>
     </row>
     <row r="306">
@@ -21856,13 +21925,13 @@
         <v>364</v>
       </c>
       <c r="S306" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="T306" t="e">
         <v>#N/A</v>
       </c>
       <c r="U306" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
     </row>
     <row r="307">
@@ -21921,13 +21990,13 @@
         <v>373</v>
       </c>
       <c r="S307" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="T307" t="e">
         <v>#N/A</v>
       </c>
       <c r="U307" t="s">
-        <v>636</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
